--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_queries_.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\01. HUB\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C352F8-D916-4318-BCFE-03CF3A4FE300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF613C-C567-410B-B7DC-11C87A65D39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -482,6 +495,45 @@
   </si>
   <si>
     <t>Vaupés, Colombia</t>
+  </si>
+  <si>
+    <t>2024-10-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-10-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-11-25 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-12-30 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -823,13 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DC42"/>
+  <dimension ref="A1:DP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CX9" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9:DP9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -845,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -853,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -861,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -869,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -877,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -885,7 +939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -893,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1269,47 @@
       <c r="DC10" t="s">
         <v>121</v>
       </c>
+      <c r="DD10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>155</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>156</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>158</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>159</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>160</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>161</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>162</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>164</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1536,10 +1629,49 @@
         <v>12753</v>
       </c>
       <c r="DC11">
-        <v>1849</v>
+        <v>1706</v>
+      </c>
+      <c r="DD11">
+        <v>2264</v>
+      </c>
+      <c r="DE11">
+        <v>2361</v>
+      </c>
+      <c r="DF11">
+        <v>2139</v>
+      </c>
+      <c r="DG11">
+        <v>2210</v>
+      </c>
+      <c r="DH11">
+        <v>3231</v>
+      </c>
+      <c r="DI11">
+        <v>2226</v>
+      </c>
+      <c r="DJ11">
+        <v>1983</v>
+      </c>
+      <c r="DK11">
+        <v>2509</v>
+      </c>
+      <c r="DL11">
+        <v>2181</v>
+      </c>
+      <c r="DM11">
+        <v>1884</v>
+      </c>
+      <c r="DN11">
+        <v>2024</v>
+      </c>
+      <c r="DO11">
+        <v>2171</v>
+      </c>
+      <c r="DP11">
+        <v>595</v>
       </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -1859,10 +1991,49 @@
         <v>3170</v>
       </c>
       <c r="DC12">
-        <v>510</v>
+        <v>412</v>
+      </c>
+      <c r="DD12">
+        <v>525</v>
+      </c>
+      <c r="DE12">
+        <v>488</v>
+      </c>
+      <c r="DF12">
+        <v>498</v>
+      </c>
+      <c r="DG12">
+        <v>453</v>
+      </c>
+      <c r="DH12">
+        <v>733</v>
+      </c>
+      <c r="DI12">
+        <v>520</v>
+      </c>
+      <c r="DJ12">
+        <v>471</v>
+      </c>
+      <c r="DK12">
+        <v>613</v>
+      </c>
+      <c r="DL12">
+        <v>500</v>
+      </c>
+      <c r="DM12">
+        <v>387</v>
+      </c>
+      <c r="DN12">
+        <v>453</v>
+      </c>
+      <c r="DO12">
+        <v>516</v>
+      </c>
+      <c r="DP12">
+        <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2182,10 +2353,49 @@
         <v>1523</v>
       </c>
       <c r="DC13">
-        <v>317</v>
+        <v>265</v>
+      </c>
+      <c r="DD13">
+        <v>355</v>
+      </c>
+      <c r="DE13">
+        <v>373</v>
+      </c>
+      <c r="DF13">
+        <v>337</v>
+      </c>
+      <c r="DG13">
+        <v>319</v>
+      </c>
+      <c r="DH13">
+        <v>411</v>
+      </c>
+      <c r="DI13">
+        <v>319</v>
+      </c>
+      <c r="DJ13">
+        <v>291</v>
+      </c>
+      <c r="DK13">
+        <v>320</v>
+      </c>
+      <c r="DL13">
+        <v>280</v>
+      </c>
+      <c r="DM13">
+        <v>291</v>
+      </c>
+      <c r="DN13">
+        <v>307</v>
+      </c>
+      <c r="DO13">
+        <v>335</v>
+      </c>
+      <c r="DP13">
+        <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2505,10 +2715,49 @@
         <v>1068</v>
       </c>
       <c r="DC14">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="DD14">
+        <v>194</v>
+      </c>
+      <c r="DE14">
+        <v>192</v>
+      </c>
+      <c r="DF14">
+        <v>172</v>
+      </c>
+      <c r="DG14">
+        <v>161</v>
+      </c>
+      <c r="DH14">
+        <v>266</v>
+      </c>
+      <c r="DI14">
+        <v>227</v>
+      </c>
+      <c r="DJ14">
+        <v>186</v>
+      </c>
+      <c r="DK14">
+        <v>274</v>
+      </c>
+      <c r="DL14">
+        <v>292</v>
+      </c>
+      <c r="DM14">
+        <v>263</v>
+      </c>
+      <c r="DN14">
+        <v>194</v>
+      </c>
+      <c r="DO14">
+        <v>218</v>
+      </c>
+      <c r="DP14">
+        <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -2828,10 +3077,49 @@
         <v>655</v>
       </c>
       <c r="DC15">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="DD15">
+        <v>101</v>
+      </c>
+      <c r="DE15">
+        <v>110</v>
+      </c>
+      <c r="DF15">
+        <v>88</v>
+      </c>
+      <c r="DG15">
+        <v>95</v>
+      </c>
+      <c r="DH15">
+        <v>150</v>
+      </c>
+      <c r="DI15">
+        <v>99</v>
+      </c>
+      <c r="DJ15">
+        <v>93</v>
+      </c>
+      <c r="DK15">
+        <v>105</v>
+      </c>
+      <c r="DL15">
+        <v>95</v>
+      </c>
+      <c r="DM15">
+        <v>89</v>
+      </c>
+      <c r="DN15">
+        <v>95</v>
+      </c>
+      <c r="DO15">
+        <v>117</v>
+      </c>
+      <c r="DP15">
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3151,10 +3439,49 @@
         <v>358</v>
       </c>
       <c r="DC16">
-        <v>60</v>
+        <v>94</v>
+      </c>
+      <c r="DD16">
+        <v>129</v>
+      </c>
+      <c r="DE16">
+        <v>128</v>
+      </c>
+      <c r="DF16">
+        <v>145</v>
+      </c>
+      <c r="DG16">
+        <v>104</v>
+      </c>
+      <c r="DH16">
+        <v>129</v>
+      </c>
+      <c r="DI16">
+        <v>153</v>
+      </c>
+      <c r="DJ16">
+        <v>119</v>
+      </c>
+      <c r="DK16">
+        <v>114</v>
+      </c>
+      <c r="DL16">
+        <v>118</v>
+      </c>
+      <c r="DM16">
+        <v>84</v>
+      </c>
+      <c r="DN16">
+        <v>106</v>
+      </c>
+      <c r="DO16">
+        <v>104</v>
+      </c>
+      <c r="DP16">
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3474,10 +3801,49 @@
         <v>255</v>
       </c>
       <c r="DC17">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="DD17">
+        <v>48</v>
+      </c>
+      <c r="DE17">
+        <v>60</v>
+      </c>
+      <c r="DF17">
+        <v>30</v>
+      </c>
+      <c r="DG17">
+        <v>34</v>
+      </c>
+      <c r="DH17">
+        <v>70</v>
+      </c>
+      <c r="DI17">
+        <v>39</v>
+      </c>
+      <c r="DJ17">
+        <v>29</v>
+      </c>
+      <c r="DK17">
+        <v>42</v>
+      </c>
+      <c r="DL17">
+        <v>38</v>
+      </c>
+      <c r="DM17">
+        <v>33</v>
+      </c>
+      <c r="DN17">
+        <v>38</v>
+      </c>
+      <c r="DO17">
+        <v>61</v>
+      </c>
+      <c r="DP17">
+        <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -3797,10 +4163,49 @@
         <v>535</v>
       </c>
       <c r="DC18">
-        <v>105</v>
+        <v>59</v>
+      </c>
+      <c r="DD18">
+        <v>61</v>
+      </c>
+      <c r="DE18">
+        <v>59</v>
+      </c>
+      <c r="DF18">
+        <v>57</v>
+      </c>
+      <c r="DG18">
+        <v>57</v>
+      </c>
+      <c r="DH18">
+        <v>80</v>
+      </c>
+      <c r="DI18">
+        <v>58</v>
+      </c>
+      <c r="DJ18">
+        <v>55</v>
+      </c>
+      <c r="DK18">
+        <v>65</v>
+      </c>
+      <c r="DL18">
+        <v>57</v>
+      </c>
+      <c r="DM18">
+        <v>46</v>
+      </c>
+      <c r="DN18">
+        <v>54</v>
+      </c>
+      <c r="DO18">
+        <v>60</v>
+      </c>
+      <c r="DP18">
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4120,10 +4525,49 @@
         <v>183</v>
       </c>
       <c r="DC19">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="DD19">
+        <v>32</v>
+      </c>
+      <c r="DE19">
+        <v>31</v>
+      </c>
+      <c r="DF19">
+        <v>31</v>
+      </c>
+      <c r="DG19">
+        <v>17</v>
+      </c>
+      <c r="DH19">
+        <v>49</v>
+      </c>
+      <c r="DI19">
+        <v>26</v>
+      </c>
+      <c r="DJ19">
+        <v>21</v>
+      </c>
+      <c r="DK19">
+        <v>45</v>
+      </c>
+      <c r="DL19">
+        <v>37</v>
+      </c>
+      <c r="DM19">
+        <v>29</v>
+      </c>
+      <c r="DN19">
+        <v>28</v>
+      </c>
+      <c r="DO19">
+        <v>14</v>
+      </c>
+      <c r="DP19">
+        <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -4443,10 +4887,49 @@
         <v>166</v>
       </c>
       <c r="DC20">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="DD20">
+        <v>29</v>
+      </c>
+      <c r="DE20">
+        <v>42</v>
+      </c>
+      <c r="DF20">
+        <v>28</v>
+      </c>
+      <c r="DG20">
+        <v>32</v>
+      </c>
+      <c r="DH20">
+        <v>35</v>
+      </c>
+      <c r="DI20">
+        <v>33</v>
+      </c>
+      <c r="DJ20">
+        <v>34</v>
+      </c>
+      <c r="DK20">
+        <v>31</v>
+      </c>
+      <c r="DL20">
+        <v>34</v>
+      </c>
+      <c r="DM20">
+        <v>23</v>
+      </c>
+      <c r="DN20">
+        <v>28</v>
+      </c>
+      <c r="DO20">
+        <v>29</v>
+      </c>
+      <c r="DP20">
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -4766,10 +5249,49 @@
         <v>165</v>
       </c>
       <c r="DC21">
+        <v>29</v>
+      </c>
+      <c r="DD21">
+        <v>29</v>
+      </c>
+      <c r="DE21">
+        <v>18</v>
+      </c>
+      <c r="DF21">
+        <v>26</v>
+      </c>
+      <c r="DG21">
+        <v>20</v>
+      </c>
+      <c r="DH21">
+        <v>35</v>
+      </c>
+      <c r="DI21">
+        <v>26</v>
+      </c>
+      <c r="DJ21">
+        <v>16</v>
+      </c>
+      <c r="DK21">
+        <v>30</v>
+      </c>
+      <c r="DL21">
+        <v>24</v>
+      </c>
+      <c r="DM21">
+        <v>24</v>
+      </c>
+      <c r="DN21">
         <v>28</v>
       </c>
+      <c r="DO21">
+        <v>31</v>
+      </c>
+      <c r="DP21">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -5089,10 +5611,49 @@
         <v>201</v>
       </c>
       <c r="DC22">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="DD22">
+        <v>18</v>
+      </c>
+      <c r="DE22">
+        <v>27</v>
+      </c>
+      <c r="DF22">
+        <v>24</v>
+      </c>
+      <c r="DG22">
+        <v>16</v>
+      </c>
+      <c r="DH22">
+        <v>31</v>
+      </c>
+      <c r="DI22">
+        <v>22</v>
+      </c>
+      <c r="DJ22">
+        <v>16</v>
+      </c>
+      <c r="DK22">
+        <v>20</v>
+      </c>
+      <c r="DL22">
+        <v>20</v>
+      </c>
+      <c r="DM22">
+        <v>16</v>
+      </c>
+      <c r="DN22">
+        <v>20</v>
+      </c>
+      <c r="DO22">
+        <v>34</v>
+      </c>
+      <c r="DP22">
+        <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -5412,10 +5973,49 @@
         <v>183</v>
       </c>
       <c r="DC23">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="DD23">
+        <v>19</v>
+      </c>
+      <c r="DE23">
+        <v>22</v>
+      </c>
+      <c r="DF23">
+        <v>21</v>
+      </c>
+      <c r="DG23">
+        <v>18</v>
+      </c>
+      <c r="DH23">
+        <v>22</v>
+      </c>
+      <c r="DI23">
+        <v>10</v>
+      </c>
+      <c r="DJ23">
+        <v>13</v>
+      </c>
+      <c r="DK23">
+        <v>12</v>
+      </c>
+      <c r="DL23">
+        <v>11</v>
+      </c>
+      <c r="DM23">
+        <v>14</v>
+      </c>
+      <c r="DN23">
+        <v>19</v>
+      </c>
+      <c r="DO23">
+        <v>16</v>
+      </c>
+      <c r="DP23">
+        <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -5735,10 +6335,49 @@
         <v>128</v>
       </c>
       <c r="DC24">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="DD24">
+        <v>30</v>
+      </c>
+      <c r="DE24">
+        <v>15</v>
+      </c>
+      <c r="DF24">
+        <v>39</v>
+      </c>
+      <c r="DG24">
+        <v>20</v>
+      </c>
+      <c r="DH24">
+        <v>30</v>
+      </c>
+      <c r="DI24">
+        <v>22</v>
+      </c>
+      <c r="DJ24">
+        <v>24</v>
+      </c>
+      <c r="DK24">
+        <v>25</v>
+      </c>
+      <c r="DL24">
+        <v>25</v>
+      </c>
+      <c r="DM24">
+        <v>28</v>
+      </c>
+      <c r="DN24">
+        <v>20</v>
+      </c>
+      <c r="DO24">
+        <v>22</v>
+      </c>
+      <c r="DP24">
+        <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -6060,8 +6699,47 @@
       <c r="DC25">
         <v>10</v>
       </c>
+      <c r="DD25">
+        <v>9</v>
+      </c>
+      <c r="DE25">
+        <v>15</v>
+      </c>
+      <c r="DF25">
+        <v>20</v>
+      </c>
+      <c r="DG25">
+        <v>21</v>
+      </c>
+      <c r="DH25">
+        <v>31</v>
+      </c>
+      <c r="DI25">
+        <v>19</v>
+      </c>
+      <c r="DJ25">
+        <v>13</v>
+      </c>
+      <c r="DK25">
+        <v>35</v>
+      </c>
+      <c r="DL25">
+        <v>15</v>
+      </c>
+      <c r="DM25">
+        <v>11</v>
+      </c>
+      <c r="DN25">
+        <v>20</v>
+      </c>
+      <c r="DO25">
+        <v>19</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -6383,8 +7061,47 @@
       <c r="DC26">
         <v>26</v>
       </c>
+      <c r="DD26">
+        <v>9</v>
+      </c>
+      <c r="DE26">
+        <v>9</v>
+      </c>
+      <c r="DF26">
+        <v>17</v>
+      </c>
+      <c r="DG26">
+        <v>24</v>
+      </c>
+      <c r="DH26">
+        <v>34</v>
+      </c>
+      <c r="DI26">
+        <v>11</v>
+      </c>
+      <c r="DJ26">
+        <v>18</v>
+      </c>
+      <c r="DK26">
+        <v>20</v>
+      </c>
+      <c r="DL26">
+        <v>24</v>
+      </c>
+      <c r="DM26">
+        <v>26</v>
+      </c>
+      <c r="DN26">
+        <v>28</v>
+      </c>
+      <c r="DO26">
+        <v>22</v>
+      </c>
+      <c r="DP26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -6704,10 +7421,49 @@
         <v>86</v>
       </c>
       <c r="DC27">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="DD27">
+        <v>15</v>
+      </c>
+      <c r="DE27">
+        <v>13</v>
+      </c>
+      <c r="DF27">
+        <v>9</v>
+      </c>
+      <c r="DG27">
+        <v>8</v>
+      </c>
+      <c r="DH27">
+        <v>19</v>
+      </c>
+      <c r="DI27">
+        <v>7</v>
+      </c>
+      <c r="DJ27">
+        <v>10</v>
+      </c>
+      <c r="DK27">
+        <v>23</v>
+      </c>
+      <c r="DL27">
+        <v>14</v>
+      </c>
+      <c r="DM27">
+        <v>9</v>
+      </c>
+      <c r="DN27">
+        <v>12</v>
+      </c>
+      <c r="DO27">
+        <v>10</v>
+      </c>
+      <c r="DP27">
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -7027,10 +7783,49 @@
         <v>115</v>
       </c>
       <c r="DC28">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="DD28">
+        <v>20</v>
+      </c>
+      <c r="DE28">
+        <v>21</v>
+      </c>
+      <c r="DF28">
+        <v>22</v>
+      </c>
+      <c r="DG28">
+        <v>19</v>
+      </c>
+      <c r="DH28">
+        <v>37</v>
+      </c>
+      <c r="DI28">
+        <v>16</v>
+      </c>
+      <c r="DJ28">
+        <v>18</v>
+      </c>
+      <c r="DK28">
+        <v>14</v>
+      </c>
+      <c r="DL28">
+        <v>16</v>
+      </c>
+      <c r="DM28">
+        <v>23</v>
+      </c>
+      <c r="DN28">
+        <v>27</v>
+      </c>
+      <c r="DO28">
+        <v>17</v>
+      </c>
+      <c r="DP28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -7350,10 +8145,49 @@
         <v>284</v>
       </c>
       <c r="DC29">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="DD29">
+        <v>13</v>
+      </c>
+      <c r="DE29">
+        <v>11</v>
+      </c>
+      <c r="DF29">
+        <v>21</v>
+      </c>
+      <c r="DG29">
+        <v>11</v>
+      </c>
+      <c r="DH29">
+        <v>16</v>
+      </c>
+      <c r="DI29">
+        <v>11</v>
+      </c>
+      <c r="DJ29">
+        <v>16</v>
+      </c>
+      <c r="DK29">
+        <v>19</v>
+      </c>
+      <c r="DL29">
+        <v>14</v>
+      </c>
+      <c r="DM29">
+        <v>9</v>
+      </c>
+      <c r="DN29">
+        <v>11</v>
+      </c>
+      <c r="DO29">
+        <v>9</v>
+      </c>
+      <c r="DP29">
+        <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -7675,8 +8509,47 @@
       <c r="DC30">
         <v>8</v>
       </c>
+      <c r="DD30">
+        <v>8</v>
+      </c>
+      <c r="DE30">
+        <v>35</v>
+      </c>
+      <c r="DF30">
+        <v>8</v>
+      </c>
+      <c r="DG30">
+        <v>11</v>
+      </c>
+      <c r="DH30">
+        <v>7</v>
+      </c>
+      <c r="DI30">
+        <v>13</v>
+      </c>
+      <c r="DJ30">
+        <v>9</v>
+      </c>
+      <c r="DK30">
+        <v>12</v>
+      </c>
+      <c r="DL30">
+        <v>4</v>
+      </c>
+      <c r="DM30">
+        <v>3</v>
+      </c>
+      <c r="DN30">
+        <v>4</v>
+      </c>
+      <c r="DO30">
+        <v>10</v>
+      </c>
+      <c r="DP30">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -7996,10 +8869,49 @@
         <v>42</v>
       </c>
       <c r="DC31">
+        <v>8</v>
+      </c>
+      <c r="DD31">
+        <v>7</v>
+      </c>
+      <c r="DE31">
+        <v>14</v>
+      </c>
+      <c r="DF31">
+        <v>8</v>
+      </c>
+      <c r="DG31">
+        <v>5</v>
+      </c>
+      <c r="DH31">
+        <v>13</v>
+      </c>
+      <c r="DI31">
+        <v>9</v>
+      </c>
+      <c r="DJ31">
+        <v>7</v>
+      </c>
+      <c r="DK31">
+        <v>18</v>
+      </c>
+      <c r="DL31">
+        <v>10</v>
+      </c>
+      <c r="DM31">
         <v>4</v>
       </c>
+      <c r="DN31">
+        <v>11</v>
+      </c>
+      <c r="DO31">
+        <v>4</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -8319,10 +9231,49 @@
         <v>42</v>
       </c>
       <c r="DC32">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="DD32">
+        <v>9</v>
+      </c>
+      <c r="DE32">
+        <v>19</v>
+      </c>
+      <c r="DF32">
+        <v>6</v>
+      </c>
+      <c r="DG32">
+        <v>8</v>
+      </c>
+      <c r="DH32">
+        <v>7</v>
+      </c>
+      <c r="DI32">
+        <v>7</v>
+      </c>
+      <c r="DJ32">
+        <v>9</v>
+      </c>
+      <c r="DK32">
+        <v>3</v>
+      </c>
+      <c r="DL32">
+        <v>6</v>
+      </c>
+      <c r="DM32">
+        <v>8</v>
+      </c>
+      <c r="DN32">
+        <v>7</v>
+      </c>
+      <c r="DO32">
+        <v>7</v>
+      </c>
+      <c r="DP32">
+        <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -8642,10 +9593,49 @@
         <v>164</v>
       </c>
       <c r="DC33">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="DD33">
+        <v>11</v>
+      </c>
+      <c r="DE33">
+        <v>11</v>
+      </c>
+      <c r="DF33">
+        <v>15</v>
+      </c>
+      <c r="DG33">
+        <v>9</v>
+      </c>
+      <c r="DH33">
+        <v>25</v>
+      </c>
+      <c r="DI33">
+        <v>11</v>
+      </c>
+      <c r="DJ33">
+        <v>14</v>
+      </c>
+      <c r="DK33">
+        <v>16</v>
+      </c>
+      <c r="DL33">
+        <v>10</v>
+      </c>
+      <c r="DM33">
+        <v>7</v>
+      </c>
+      <c r="DN33">
+        <v>15</v>
+      </c>
+      <c r="DO33">
+        <v>10</v>
+      </c>
+      <c r="DP33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -8965,10 +9955,49 @@
         <v>10</v>
       </c>
       <c r="DC34">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="DD34">
+        <v>0</v>
+      </c>
+      <c r="DE34">
+        <v>0</v>
+      </c>
+      <c r="DF34">
+        <v>0</v>
+      </c>
+      <c r="DG34">
+        <v>0</v>
+      </c>
+      <c r="DH34">
+        <v>0</v>
+      </c>
+      <c r="DI34">
+        <v>0</v>
+      </c>
+      <c r="DJ34">
+        <v>0</v>
+      </c>
+      <c r="DK34">
+        <v>0</v>
+      </c>
+      <c r="DL34">
+        <v>0</v>
+      </c>
+      <c r="DM34">
+        <v>0</v>
+      </c>
+      <c r="DN34">
+        <v>0</v>
+      </c>
+      <c r="DO34">
+        <v>0</v>
+      </c>
+      <c r="DP34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -9288,10 +10317,49 @@
         <v>7</v>
       </c>
       <c r="DC35">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="DD35">
+        <v>0</v>
+      </c>
+      <c r="DE35">
+        <v>0</v>
+      </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
+      <c r="DG35">
+        <v>0</v>
+      </c>
+      <c r="DH35">
+        <v>0</v>
+      </c>
+      <c r="DI35">
+        <v>0</v>
+      </c>
+      <c r="DJ35">
+        <v>0</v>
+      </c>
+      <c r="DK35">
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <v>0</v>
+      </c>
+      <c r="DM35">
+        <v>0</v>
+      </c>
+      <c r="DN35">
+        <v>0</v>
+      </c>
+      <c r="DO35">
+        <v>0</v>
+      </c>
+      <c r="DP35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -9611,10 +10679,49 @@
         <v>10</v>
       </c>
       <c r="DC36">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="DD36">
+        <v>1</v>
+      </c>
+      <c r="DE36">
+        <v>3</v>
+      </c>
+      <c r="DF36">
+        <v>1</v>
+      </c>
+      <c r="DG36">
+        <v>1</v>
+      </c>
+      <c r="DH36">
+        <v>2</v>
+      </c>
+      <c r="DI36">
+        <v>2</v>
+      </c>
+      <c r="DJ36">
+        <v>0</v>
+      </c>
+      <c r="DK36">
+        <v>1</v>
+      </c>
+      <c r="DL36">
+        <v>1</v>
+      </c>
+      <c r="DM36">
+        <v>2</v>
+      </c>
+      <c r="DN36">
+        <v>3</v>
+      </c>
+      <c r="DO36">
+        <v>3</v>
+      </c>
+      <c r="DP36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -9934,10 +11041,49 @@
         <v>23</v>
       </c>
       <c r="DC37">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="DD37">
+        <v>0</v>
+      </c>
+      <c r="DE37">
+        <v>0</v>
+      </c>
+      <c r="DF37">
+        <v>0</v>
+      </c>
+      <c r="DG37">
+        <v>0</v>
+      </c>
+      <c r="DH37">
+        <v>0</v>
+      </c>
+      <c r="DI37">
+        <v>0</v>
+      </c>
+      <c r="DJ37">
+        <v>0</v>
+      </c>
+      <c r="DK37">
+        <v>0</v>
+      </c>
+      <c r="DL37">
+        <v>0</v>
+      </c>
+      <c r="DM37">
+        <v>0</v>
+      </c>
+      <c r="DN37">
+        <v>0</v>
+      </c>
+      <c r="DO37">
+        <v>0</v>
+      </c>
+      <c r="DP37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -10259,8 +11405,47 @@
       <c r="DC38">
         <v>0</v>
       </c>
+      <c r="DD38">
+        <v>0</v>
+      </c>
+      <c r="DE38">
+        <v>0</v>
+      </c>
+      <c r="DF38">
+        <v>0</v>
+      </c>
+      <c r="DG38">
+        <v>0</v>
+      </c>
+      <c r="DH38">
+        <v>0</v>
+      </c>
+      <c r="DI38">
+        <v>0</v>
+      </c>
+      <c r="DJ38">
+        <v>0</v>
+      </c>
+      <c r="DK38">
+        <v>0</v>
+      </c>
+      <c r="DL38">
+        <v>0</v>
+      </c>
+      <c r="DM38">
+        <v>0</v>
+      </c>
+      <c r="DN38">
+        <v>0</v>
+      </c>
+      <c r="DO38">
+        <v>0</v>
+      </c>
+      <c r="DP38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -10582,8 +11767,47 @@
       <c r="DC39">
         <v>0</v>
       </c>
+      <c r="DD39">
+        <v>0</v>
+      </c>
+      <c r="DE39">
+        <v>0</v>
+      </c>
+      <c r="DF39">
+        <v>0</v>
+      </c>
+      <c r="DG39">
+        <v>0</v>
+      </c>
+      <c r="DH39">
+        <v>0</v>
+      </c>
+      <c r="DI39">
+        <v>0</v>
+      </c>
+      <c r="DJ39">
+        <v>0</v>
+      </c>
+      <c r="DK39">
+        <v>0</v>
+      </c>
+      <c r="DL39">
+        <v>0</v>
+      </c>
+      <c r="DM39">
+        <v>0</v>
+      </c>
+      <c r="DN39">
+        <v>0</v>
+      </c>
+      <c r="DO39">
+        <v>0</v>
+      </c>
+      <c r="DP39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -10905,8 +12129,47 @@
       <c r="DC40">
         <v>0</v>
       </c>
+      <c r="DD40">
+        <v>0</v>
+      </c>
+      <c r="DE40">
+        <v>0</v>
+      </c>
+      <c r="DF40">
+        <v>0</v>
+      </c>
+      <c r="DG40">
+        <v>0</v>
+      </c>
+      <c r="DH40">
+        <v>0</v>
+      </c>
+      <c r="DI40">
+        <v>0</v>
+      </c>
+      <c r="DJ40">
+        <v>0</v>
+      </c>
+      <c r="DK40">
+        <v>0</v>
+      </c>
+      <c r="DL40">
+        <v>0</v>
+      </c>
+      <c r="DM40">
+        <v>0</v>
+      </c>
+      <c r="DN40">
+        <v>0</v>
+      </c>
+      <c r="DO40">
+        <v>0</v>
+      </c>
+      <c r="DP40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -11228,8 +12491,47 @@
       <c r="DC41">
         <v>0</v>
       </c>
+      <c r="DD41">
+        <v>0</v>
+      </c>
+      <c r="DE41">
+        <v>0</v>
+      </c>
+      <c r="DF41">
+        <v>0</v>
+      </c>
+      <c r="DG41">
+        <v>0</v>
+      </c>
+      <c r="DH41">
+        <v>0</v>
+      </c>
+      <c r="DI41">
+        <v>0</v>
+      </c>
+      <c r="DJ41">
+        <v>0</v>
+      </c>
+      <c r="DK41">
+        <v>0</v>
+      </c>
+      <c r="DL41">
+        <v>0</v>
+      </c>
+      <c r="DM41">
+        <v>0</v>
+      </c>
+      <c r="DN41">
+        <v>0</v>
+      </c>
+      <c r="DO41">
+        <v>0</v>
+      </c>
+      <c r="DP41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:120" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -11549,6 +12851,45 @@
         <v>0</v>
       </c>
       <c r="DC42">
+        <v>0</v>
+      </c>
+      <c r="DD42">
+        <v>0</v>
+      </c>
+      <c r="DE42">
+        <v>0</v>
+      </c>
+      <c r="DF42">
+        <v>0</v>
+      </c>
+      <c r="DG42">
+        <v>0</v>
+      </c>
+      <c r="DH42">
+        <v>0</v>
+      </c>
+      <c r="DI42">
+        <v>0</v>
+      </c>
+      <c r="DJ42">
+        <v>0</v>
+      </c>
+      <c r="DK42">
+        <v>0</v>
+      </c>
+      <c r="DL42">
+        <v>0</v>
+      </c>
+      <c r="DM42">
+        <v>0</v>
+      </c>
+      <c r="DN42">
+        <v>0</v>
+      </c>
+      <c r="DO42">
+        <v>0</v>
+      </c>
+      <c r="DP42">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_queries_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF613C-C567-410B-B7DC-11C87A65D39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630C2BA-3783-4CC9-8928-841327CA0DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -534,6 +534,45 @@
   </si>
   <si>
     <t>2024-12-30 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-02-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-03-31 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -875,15 +914,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DP42"/>
+  <dimension ref="A1:EC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CX9" workbookViewId="0">
-      <selection activeCell="DC9" sqref="DC9:DP9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="DJ18" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="DR9" sqref="DQ9:EC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="121" max="121" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -899,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -907,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -915,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -923,7 +969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -931,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -939,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -947,7 +993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1308,8 +1354,47 @@
       <c r="DP10" t="s">
         <v>166</v>
       </c>
+      <c r="DQ10" t="s">
+        <v>167</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>168</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>169</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>171</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>178</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1670,8 +1755,47 @@
       <c r="DP11">
         <v>595</v>
       </c>
+      <c r="DQ11">
+        <v>7303</v>
+      </c>
+      <c r="DR11">
+        <v>2871</v>
+      </c>
+      <c r="DS11">
+        <v>7107</v>
+      </c>
+      <c r="DT11">
+        <v>8308</v>
+      </c>
+      <c r="DU11">
+        <v>3093</v>
+      </c>
+      <c r="DV11">
+        <v>2314</v>
+      </c>
+      <c r="DW11">
+        <v>1959</v>
+      </c>
+      <c r="DX11">
+        <v>2779</v>
+      </c>
+      <c r="DY11">
+        <v>2000</v>
+      </c>
+      <c r="DZ11">
+        <v>1889</v>
+      </c>
+      <c r="EA11">
+        <v>2636</v>
+      </c>
+      <c r="EB11">
+        <v>2415</v>
+      </c>
+      <c r="EC11">
+        <v>352</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2032,8 +2156,47 @@
       <c r="DP12">
         <v>127</v>
       </c>
+      <c r="DQ12">
+        <v>1580</v>
+      </c>
+      <c r="DR12">
+        <v>739</v>
+      </c>
+      <c r="DS12">
+        <v>1446</v>
+      </c>
+      <c r="DT12">
+        <v>1615</v>
+      </c>
+      <c r="DU12">
+        <v>557</v>
+      </c>
+      <c r="DV12">
+        <v>503</v>
+      </c>
+      <c r="DW12">
+        <v>415</v>
+      </c>
+      <c r="DX12">
+        <v>539</v>
+      </c>
+      <c r="DY12">
+        <v>454</v>
+      </c>
+      <c r="DZ12">
+        <v>446</v>
+      </c>
+      <c r="EA12">
+        <v>560</v>
+      </c>
+      <c r="EB12">
+        <v>476</v>
+      </c>
+      <c r="EC12">
+        <v>52</v>
+      </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2394,8 +2557,47 @@
       <c r="DP13">
         <v>82</v>
       </c>
+      <c r="DQ13">
+        <v>880</v>
+      </c>
+      <c r="DR13">
+        <v>418</v>
+      </c>
+      <c r="DS13">
+        <v>847</v>
+      </c>
+      <c r="DT13">
+        <v>987</v>
+      </c>
+      <c r="DU13">
+        <v>430</v>
+      </c>
+      <c r="DV13">
+        <v>277</v>
+      </c>
+      <c r="DW13">
+        <v>293</v>
+      </c>
+      <c r="DX13">
+        <v>386</v>
+      </c>
+      <c r="DY13">
+        <v>331</v>
+      </c>
+      <c r="DZ13">
+        <v>281</v>
+      </c>
+      <c r="EA13">
+        <v>328</v>
+      </c>
+      <c r="EB13">
+        <v>305</v>
+      </c>
+      <c r="EC13">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2756,8 +2958,47 @@
       <c r="DP14">
         <v>62</v>
       </c>
+      <c r="DQ14">
+        <v>609</v>
+      </c>
+      <c r="DR14">
+        <v>360</v>
+      </c>
+      <c r="DS14">
+        <v>644</v>
+      </c>
+      <c r="DT14">
+        <v>809</v>
+      </c>
+      <c r="DU14">
+        <v>332</v>
+      </c>
+      <c r="DV14">
+        <v>232</v>
+      </c>
+      <c r="DW14">
+        <v>193</v>
+      </c>
+      <c r="DX14">
+        <v>264</v>
+      </c>
+      <c r="DY14">
+        <v>332</v>
+      </c>
+      <c r="DZ14">
+        <v>188</v>
+      </c>
+      <c r="EA14">
+        <v>242</v>
+      </c>
+      <c r="EB14">
+        <v>220</v>
+      </c>
+      <c r="EC14">
+        <v>41</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3118,8 +3359,47 @@
       <c r="DP15">
         <v>24</v>
       </c>
+      <c r="DQ15">
+        <v>388</v>
+      </c>
+      <c r="DR15">
+        <v>180</v>
+      </c>
+      <c r="DS15">
+        <v>390</v>
+      </c>
+      <c r="DT15">
+        <v>514</v>
+      </c>
+      <c r="DU15">
+        <v>176</v>
+      </c>
+      <c r="DV15">
+        <v>136</v>
+      </c>
+      <c r="DW15">
+        <v>114</v>
+      </c>
+      <c r="DX15">
+        <v>141</v>
+      </c>
+      <c r="DY15">
+        <v>103</v>
+      </c>
+      <c r="DZ15">
+        <v>133</v>
+      </c>
+      <c r="EA15">
+        <v>143</v>
+      </c>
+      <c r="EB15">
+        <v>76</v>
+      </c>
+      <c r="EC15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3480,8 +3760,47 @@
       <c r="DP16">
         <v>28</v>
       </c>
+      <c r="DQ16">
+        <v>280</v>
+      </c>
+      <c r="DR16">
+        <v>157</v>
+      </c>
+      <c r="DS16">
+        <v>240</v>
+      </c>
+      <c r="DT16">
+        <v>360</v>
+      </c>
+      <c r="DU16">
+        <v>215</v>
+      </c>
+      <c r="DV16">
+        <v>219</v>
+      </c>
+      <c r="DW16">
+        <v>183</v>
+      </c>
+      <c r="DX16">
+        <v>192</v>
+      </c>
+      <c r="DY16">
+        <v>139</v>
+      </c>
+      <c r="DZ16">
+        <v>160</v>
+      </c>
+      <c r="EA16">
+        <v>319</v>
+      </c>
+      <c r="EB16">
+        <v>215</v>
+      </c>
+      <c r="EC16">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3842,8 +4161,47 @@
       <c r="DP17">
         <v>8</v>
       </c>
+      <c r="DQ17">
+        <v>121</v>
+      </c>
+      <c r="DR17">
+        <v>71</v>
+      </c>
+      <c r="DS17">
+        <v>139</v>
+      </c>
+      <c r="DT17">
+        <v>124</v>
+      </c>
+      <c r="DU17">
+        <v>41</v>
+      </c>
+      <c r="DV17">
+        <v>48</v>
+      </c>
+      <c r="DW17">
+        <v>35</v>
+      </c>
+      <c r="DX17">
+        <v>48</v>
+      </c>
+      <c r="DY17">
+        <v>35</v>
+      </c>
+      <c r="DZ17">
+        <v>52</v>
+      </c>
+      <c r="EA17">
+        <v>54</v>
+      </c>
+      <c r="EB17">
+        <v>45</v>
+      </c>
+      <c r="EC17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4204,8 +4562,47 @@
       <c r="DP18">
         <v>11</v>
       </c>
+      <c r="DQ18">
+        <v>196</v>
+      </c>
+      <c r="DR18">
+        <v>87</v>
+      </c>
+      <c r="DS18">
+        <v>180</v>
+      </c>
+      <c r="DT18">
+        <v>153</v>
+      </c>
+      <c r="DU18">
+        <v>66</v>
+      </c>
+      <c r="DV18">
+        <v>67</v>
+      </c>
+      <c r="DW18">
+        <v>50</v>
+      </c>
+      <c r="DX18">
+        <v>79</v>
+      </c>
+      <c r="DY18">
+        <v>56</v>
+      </c>
+      <c r="DZ18">
+        <v>53</v>
+      </c>
+      <c r="EA18">
+        <v>77</v>
+      </c>
+      <c r="EB18">
+        <v>160</v>
+      </c>
+      <c r="EC18">
+        <v>23</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -4566,8 +4963,47 @@
       <c r="DP19">
         <v>9</v>
       </c>
+      <c r="DQ19">
+        <v>76</v>
+      </c>
+      <c r="DR19">
+        <v>41</v>
+      </c>
+      <c r="DS19">
+        <v>104</v>
+      </c>
+      <c r="DT19">
+        <v>102</v>
+      </c>
+      <c r="DU19">
+        <v>35</v>
+      </c>
+      <c r="DV19">
+        <v>24</v>
+      </c>
+      <c r="DW19">
+        <v>37</v>
+      </c>
+      <c r="DX19">
+        <v>32</v>
+      </c>
+      <c r="DY19">
+        <v>15</v>
+      </c>
+      <c r="DZ19">
+        <v>14</v>
+      </c>
+      <c r="EA19">
+        <v>12</v>
+      </c>
+      <c r="EB19">
+        <v>14</v>
+      </c>
+      <c r="EC19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -4928,8 +5364,47 @@
       <c r="DP20">
         <v>3</v>
       </c>
+      <c r="DQ20">
+        <v>149</v>
+      </c>
+      <c r="DR20">
+        <v>60</v>
+      </c>
+      <c r="DS20">
+        <v>113</v>
+      </c>
+      <c r="DT20">
+        <v>155</v>
+      </c>
+      <c r="DU20">
+        <v>60</v>
+      </c>
+      <c r="DV20">
+        <v>40</v>
+      </c>
+      <c r="DW20">
+        <v>35</v>
+      </c>
+      <c r="DX20">
+        <v>48</v>
+      </c>
+      <c r="DY20">
+        <v>27</v>
+      </c>
+      <c r="DZ20">
+        <v>34</v>
+      </c>
+      <c r="EA20">
+        <v>29</v>
+      </c>
+      <c r="EB20">
+        <v>36</v>
+      </c>
+      <c r="EC20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -5290,8 +5765,47 @@
       <c r="DP21">
         <v>8</v>
       </c>
+      <c r="DQ21">
+        <v>67</v>
+      </c>
+      <c r="DR21">
+        <v>29</v>
+      </c>
+      <c r="DS21">
+        <v>75</v>
+      </c>
+      <c r="DT21">
+        <v>109</v>
+      </c>
+      <c r="DU21">
+        <v>24</v>
+      </c>
+      <c r="DV21">
+        <v>31</v>
+      </c>
+      <c r="DW21">
+        <v>14</v>
+      </c>
+      <c r="DX21">
+        <v>25</v>
+      </c>
+      <c r="DY21">
+        <v>16</v>
+      </c>
+      <c r="DZ21">
+        <v>32</v>
+      </c>
+      <c r="EA21">
+        <v>36</v>
+      </c>
+      <c r="EB21">
+        <v>33</v>
+      </c>
+      <c r="EC21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -5652,8 +6166,47 @@
       <c r="DP22">
         <v>3</v>
       </c>
+      <c r="DQ22">
+        <v>65</v>
+      </c>
+      <c r="DR22">
+        <v>26</v>
+      </c>
+      <c r="DS22">
+        <v>78</v>
+      </c>
+      <c r="DT22">
+        <v>100</v>
+      </c>
+      <c r="DU22">
+        <v>30</v>
+      </c>
+      <c r="DV22">
+        <v>22</v>
+      </c>
+      <c r="DW22">
+        <v>12</v>
+      </c>
+      <c r="DX22">
+        <v>19</v>
+      </c>
+      <c r="DY22">
+        <v>19</v>
+      </c>
+      <c r="DZ22">
+        <v>23</v>
+      </c>
+      <c r="EA22">
+        <v>36</v>
+      </c>
+      <c r="EB22">
+        <v>27</v>
+      </c>
+      <c r="EC22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -6014,8 +6567,47 @@
       <c r="DP23">
         <v>3</v>
       </c>
+      <c r="DQ23">
+        <v>38</v>
+      </c>
+      <c r="DR23">
+        <v>14</v>
+      </c>
+      <c r="DS23">
+        <v>57</v>
+      </c>
+      <c r="DT23">
+        <v>75</v>
+      </c>
+      <c r="DU23">
+        <v>11</v>
+      </c>
+      <c r="DV23">
+        <v>14</v>
+      </c>
+      <c r="DW23">
+        <v>7</v>
+      </c>
+      <c r="DX23">
+        <v>15</v>
+      </c>
+      <c r="DY23">
+        <v>15</v>
+      </c>
+      <c r="DZ23">
+        <v>13</v>
+      </c>
+      <c r="EA23">
+        <v>16</v>
+      </c>
+      <c r="EB23">
+        <v>14</v>
+      </c>
+      <c r="EC23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -6376,8 +6968,47 @@
       <c r="DP24">
         <v>5</v>
       </c>
+      <c r="DQ24">
+        <v>99</v>
+      </c>
+      <c r="DR24">
+        <v>34</v>
+      </c>
+      <c r="DS24">
+        <v>77</v>
+      </c>
+      <c r="DT24">
+        <v>94</v>
+      </c>
+      <c r="DU24">
+        <v>27</v>
+      </c>
+      <c r="DV24">
+        <v>21</v>
+      </c>
+      <c r="DW24">
+        <v>22</v>
+      </c>
+      <c r="DX24">
+        <v>19</v>
+      </c>
+      <c r="DY24">
+        <v>24</v>
+      </c>
+      <c r="DZ24">
+        <v>19</v>
+      </c>
+      <c r="EA24">
+        <v>16</v>
+      </c>
+      <c r="EB24">
+        <v>26</v>
+      </c>
+      <c r="EC24">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -6738,8 +7369,47 @@
       <c r="DP25">
         <v>0</v>
       </c>
+      <c r="DQ25">
+        <v>49</v>
+      </c>
+      <c r="DR25">
+        <v>22</v>
+      </c>
+      <c r="DS25">
+        <v>42</v>
+      </c>
+      <c r="DT25">
+        <v>50</v>
+      </c>
+      <c r="DU25">
+        <v>18</v>
+      </c>
+      <c r="DV25">
+        <v>18</v>
+      </c>
+      <c r="DW25">
+        <v>9</v>
+      </c>
+      <c r="DX25">
+        <v>23</v>
+      </c>
+      <c r="DY25">
+        <v>16</v>
+      </c>
+      <c r="DZ25">
+        <v>11</v>
+      </c>
+      <c r="EA25">
+        <v>7</v>
+      </c>
+      <c r="EB25">
+        <v>15</v>
+      </c>
+      <c r="EC25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -7100,8 +7770,47 @@
       <c r="DP26">
         <v>4</v>
       </c>
+      <c r="DQ26">
+        <v>72</v>
+      </c>
+      <c r="DR26">
+        <v>23</v>
+      </c>
+      <c r="DS26">
+        <v>75</v>
+      </c>
+      <c r="DT26">
+        <v>69</v>
+      </c>
+      <c r="DU26">
+        <v>40</v>
+      </c>
+      <c r="DV26">
+        <v>16</v>
+      </c>
+      <c r="DW26">
+        <v>14</v>
+      </c>
+      <c r="DX26">
+        <v>31</v>
+      </c>
+      <c r="DY26">
+        <v>27</v>
+      </c>
+      <c r="DZ26">
+        <v>28</v>
+      </c>
+      <c r="EA26">
+        <v>33</v>
+      </c>
+      <c r="EB26">
+        <v>30</v>
+      </c>
+      <c r="EC26">
+        <v>6</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -7462,8 +8171,47 @@
       <c r="DP27">
         <v>2</v>
       </c>
+      <c r="DQ27">
+        <v>50</v>
+      </c>
+      <c r="DR27">
+        <v>23</v>
+      </c>
+      <c r="DS27">
+        <v>51</v>
+      </c>
+      <c r="DT27">
+        <v>52</v>
+      </c>
+      <c r="DU27">
+        <v>22</v>
+      </c>
+      <c r="DV27">
+        <v>15</v>
+      </c>
+      <c r="DW27">
+        <v>10</v>
+      </c>
+      <c r="DX27">
+        <v>10</v>
+      </c>
+      <c r="DY27">
+        <v>10</v>
+      </c>
+      <c r="DZ27">
+        <v>7</v>
+      </c>
+      <c r="EA27">
+        <v>14</v>
+      </c>
+      <c r="EB27">
+        <v>21</v>
+      </c>
+      <c r="EC27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -7824,8 +8572,47 @@
       <c r="DP28">
         <v>1</v>
       </c>
+      <c r="DQ28">
+        <v>63</v>
+      </c>
+      <c r="DR28">
+        <v>34</v>
+      </c>
+      <c r="DS28">
+        <v>82</v>
+      </c>
+      <c r="DT28">
+        <v>97</v>
+      </c>
+      <c r="DU28">
+        <v>26</v>
+      </c>
+      <c r="DV28">
+        <v>18</v>
+      </c>
+      <c r="DW28">
+        <v>17</v>
+      </c>
+      <c r="DX28">
+        <v>19</v>
+      </c>
+      <c r="DY28">
+        <v>13</v>
+      </c>
+      <c r="DZ28">
+        <v>22</v>
+      </c>
+      <c r="EA28">
+        <v>22</v>
+      </c>
+      <c r="EB28">
+        <v>13</v>
+      </c>
+      <c r="EC28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -8186,8 +8973,47 @@
       <c r="DP29">
         <v>5</v>
       </c>
+      <c r="DQ29">
+        <v>42</v>
+      </c>
+      <c r="DR29">
+        <v>16</v>
+      </c>
+      <c r="DS29">
+        <v>45</v>
+      </c>
+      <c r="DT29">
+        <v>56</v>
+      </c>
+      <c r="DU29">
+        <v>24</v>
+      </c>
+      <c r="DV29">
+        <v>11</v>
+      </c>
+      <c r="DW29">
+        <v>11</v>
+      </c>
+      <c r="DX29">
+        <v>10</v>
+      </c>
+      <c r="DY29">
+        <v>12</v>
+      </c>
+      <c r="DZ29">
+        <v>9</v>
+      </c>
+      <c r="EA29">
+        <v>13</v>
+      </c>
+      <c r="EB29">
+        <v>15</v>
+      </c>
+      <c r="EC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -8548,8 +9374,47 @@
       <c r="DP30">
         <v>2</v>
       </c>
+      <c r="DQ30">
+        <v>40</v>
+      </c>
+      <c r="DR30">
+        <v>17</v>
+      </c>
+      <c r="DS30">
+        <v>21</v>
+      </c>
+      <c r="DT30">
+        <v>40</v>
+      </c>
+      <c r="DU30">
+        <v>13</v>
+      </c>
+      <c r="DV30">
+        <v>9</v>
+      </c>
+      <c r="DW30">
+        <v>11</v>
+      </c>
+      <c r="DX30">
+        <v>8</v>
+      </c>
+      <c r="DY30">
+        <v>10</v>
+      </c>
+      <c r="DZ30">
+        <v>4</v>
+      </c>
+      <c r="EA30">
+        <v>8</v>
+      </c>
+      <c r="EB30">
+        <v>9</v>
+      </c>
+      <c r="EC30">
+        <v>4</v>
+      </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -8910,8 +9775,47 @@
       <c r="DP31">
         <v>0</v>
       </c>
+      <c r="DQ31">
+        <v>25</v>
+      </c>
+      <c r="DR31">
+        <v>22</v>
+      </c>
+      <c r="DS31">
+        <v>40</v>
+      </c>
+      <c r="DT31">
+        <v>36</v>
+      </c>
+      <c r="DU31">
+        <v>16</v>
+      </c>
+      <c r="DV31">
+        <v>10</v>
+      </c>
+      <c r="DW31">
+        <v>11</v>
+      </c>
+      <c r="DX31">
+        <v>8</v>
+      </c>
+      <c r="DY31">
+        <v>8</v>
+      </c>
+      <c r="DZ31">
+        <v>9</v>
+      </c>
+      <c r="EA31">
+        <v>10</v>
+      </c>
+      <c r="EB31">
+        <v>10</v>
+      </c>
+      <c r="EC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -9272,8 +10176,47 @@
       <c r="DP32">
         <v>2</v>
       </c>
+      <c r="DQ32">
+        <v>13</v>
+      </c>
+      <c r="DR32">
+        <v>22</v>
+      </c>
+      <c r="DS32">
+        <v>40</v>
+      </c>
+      <c r="DT32">
+        <v>21</v>
+      </c>
+      <c r="DU32">
+        <v>23</v>
+      </c>
+      <c r="DV32">
+        <v>2</v>
+      </c>
+      <c r="DW32">
+        <v>14</v>
+      </c>
+      <c r="DX32">
+        <v>9</v>
+      </c>
+      <c r="DY32">
+        <v>5</v>
+      </c>
+      <c r="DZ32">
+        <v>3</v>
+      </c>
+      <c r="EA32">
+        <v>3</v>
+      </c>
+      <c r="EB32">
+        <v>7</v>
+      </c>
+      <c r="EC32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -9634,8 +10577,47 @@
       <c r="DP33">
         <v>1</v>
       </c>
+      <c r="DQ33">
+        <v>56</v>
+      </c>
+      <c r="DR33">
+        <v>13</v>
+      </c>
+      <c r="DS33">
+        <v>48</v>
+      </c>
+      <c r="DT33">
+        <v>42</v>
+      </c>
+      <c r="DU33">
+        <v>17</v>
+      </c>
+      <c r="DV33">
+        <v>13</v>
+      </c>
+      <c r="DW33">
+        <v>17</v>
+      </c>
+      <c r="DX33">
+        <v>19</v>
+      </c>
+      <c r="DY33">
+        <v>5</v>
+      </c>
+      <c r="DZ33">
+        <v>8</v>
+      </c>
+      <c r="EA33">
+        <v>19</v>
+      </c>
+      <c r="EB33">
+        <v>18</v>
+      </c>
+      <c r="EC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -9996,8 +10978,47 @@
       <c r="DP34">
         <v>0</v>
       </c>
+      <c r="DQ34">
+        <v>18</v>
+      </c>
+      <c r="DR34">
+        <v>8</v>
+      </c>
+      <c r="DS34">
+        <v>8</v>
+      </c>
+      <c r="DT34">
+        <v>23</v>
+      </c>
+      <c r="DU34">
+        <v>7</v>
+      </c>
+      <c r="DV34">
+        <v>5</v>
+      </c>
+      <c r="DW34">
+        <v>1</v>
+      </c>
+      <c r="DX34">
+        <v>2</v>
+      </c>
+      <c r="DY34">
+        <v>2</v>
+      </c>
+      <c r="DZ34">
+        <v>3</v>
+      </c>
+      <c r="EA34">
+        <v>2</v>
+      </c>
+      <c r="EB34">
+        <v>4</v>
+      </c>
+      <c r="EC34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -10358,8 +11379,47 @@
       <c r="DP35">
         <v>0</v>
       </c>
+      <c r="DQ35">
+        <v>9</v>
+      </c>
+      <c r="DR35">
+        <v>0</v>
+      </c>
+      <c r="DS35">
+        <v>6</v>
+      </c>
+      <c r="DT35">
+        <v>7</v>
+      </c>
+      <c r="DU35">
+        <v>7</v>
+      </c>
+      <c r="DV35">
+        <v>3</v>
+      </c>
+      <c r="DW35">
+        <v>0</v>
+      </c>
+      <c r="DX35">
+        <v>0</v>
+      </c>
+      <c r="DY35">
+        <v>6</v>
+      </c>
+      <c r="DZ35">
+        <v>2</v>
+      </c>
+      <c r="EA35">
+        <v>1</v>
+      </c>
+      <c r="EB35">
+        <v>0</v>
+      </c>
+      <c r="EC35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -10720,8 +11780,47 @@
       <c r="DP36">
         <v>0</v>
       </c>
+      <c r="DQ36">
+        <v>10</v>
+      </c>
+      <c r="DR36">
+        <v>4</v>
+      </c>
+      <c r="DS36">
+        <v>19</v>
+      </c>
+      <c r="DT36">
+        <v>7</v>
+      </c>
+      <c r="DU36">
+        <v>6</v>
+      </c>
+      <c r="DV36">
+        <v>3</v>
+      </c>
+      <c r="DW36">
+        <v>6</v>
+      </c>
+      <c r="DX36">
+        <v>2</v>
+      </c>
+      <c r="DY36">
+        <v>0</v>
+      </c>
+      <c r="DZ36">
+        <v>2</v>
+      </c>
+      <c r="EA36">
+        <v>1</v>
+      </c>
+      <c r="EB36">
+        <v>2</v>
+      </c>
+      <c r="EC36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -11082,8 +12181,47 @@
       <c r="DP37">
         <v>0</v>
       </c>
+      <c r="DQ37">
+        <v>13</v>
+      </c>
+      <c r="DR37">
+        <v>2</v>
+      </c>
+      <c r="DS37">
+        <v>1</v>
+      </c>
+      <c r="DT37">
+        <v>10</v>
+      </c>
+      <c r="DU37">
+        <v>3</v>
+      </c>
+      <c r="DV37">
+        <v>1</v>
+      </c>
+      <c r="DW37">
+        <v>1</v>
+      </c>
+      <c r="DX37">
+        <v>4</v>
+      </c>
+      <c r="DY37">
+        <v>3</v>
+      </c>
+      <c r="DZ37">
+        <v>2</v>
+      </c>
+      <c r="EA37">
+        <v>3</v>
+      </c>
+      <c r="EB37">
+        <v>2</v>
+      </c>
+      <c r="EC37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -11444,8 +12582,47 @@
       <c r="DP38">
         <v>0</v>
       </c>
+      <c r="DQ38">
+        <v>4</v>
+      </c>
+      <c r="DR38">
+        <v>3</v>
+      </c>
+      <c r="DS38">
+        <v>14</v>
+      </c>
+      <c r="DT38">
+        <v>18</v>
+      </c>
+      <c r="DU38">
+        <v>6</v>
+      </c>
+      <c r="DV38">
+        <v>5</v>
+      </c>
+      <c r="DW38">
+        <v>5</v>
+      </c>
+      <c r="DX38">
+        <v>2</v>
+      </c>
+      <c r="DY38">
+        <v>2</v>
+      </c>
+      <c r="DZ38">
+        <v>1</v>
+      </c>
+      <c r="EA38">
+        <v>1</v>
+      </c>
+      <c r="EB38">
+        <v>1</v>
+      </c>
+      <c r="EC38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -11806,8 +12983,47 @@
       <c r="DP39">
         <v>0</v>
       </c>
+      <c r="DQ39">
+        <v>0</v>
+      </c>
+      <c r="DR39">
+        <v>0</v>
+      </c>
+      <c r="DS39">
+        <v>0</v>
+      </c>
+      <c r="DT39">
+        <v>0</v>
+      </c>
+      <c r="DU39">
+        <v>0</v>
+      </c>
+      <c r="DV39">
+        <v>0</v>
+      </c>
+      <c r="DW39">
+        <v>0</v>
+      </c>
+      <c r="DX39">
+        <v>0</v>
+      </c>
+      <c r="DY39">
+        <v>0</v>
+      </c>
+      <c r="DZ39">
+        <v>0</v>
+      </c>
+      <c r="EA39">
+        <v>0</v>
+      </c>
+      <c r="EB39">
+        <v>0</v>
+      </c>
+      <c r="EC39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -12168,8 +13384,47 @@
       <c r="DP40">
         <v>0</v>
       </c>
+      <c r="DQ40">
+        <v>0</v>
+      </c>
+      <c r="DR40">
+        <v>0</v>
+      </c>
+      <c r="DS40">
+        <v>0</v>
+      </c>
+      <c r="DT40">
+        <v>0</v>
+      </c>
+      <c r="DU40">
+        <v>0</v>
+      </c>
+      <c r="DV40">
+        <v>0</v>
+      </c>
+      <c r="DW40">
+        <v>0</v>
+      </c>
+      <c r="DX40">
+        <v>0</v>
+      </c>
+      <c r="DY40">
+        <v>0</v>
+      </c>
+      <c r="DZ40">
+        <v>0</v>
+      </c>
+      <c r="EA40">
+        <v>0</v>
+      </c>
+      <c r="EB40">
+        <v>0</v>
+      </c>
+      <c r="EC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -12530,8 +13785,47 @@
       <c r="DP41">
         <v>0</v>
       </c>
+      <c r="DQ41">
+        <v>2</v>
+      </c>
+      <c r="DR41">
+        <v>1</v>
+      </c>
+      <c r="DS41">
+        <v>0</v>
+      </c>
+      <c r="DT41">
+        <v>0</v>
+      </c>
+      <c r="DU41">
+        <v>0</v>
+      </c>
+      <c r="DV41">
+        <v>0</v>
+      </c>
+      <c r="DW41">
+        <v>0</v>
+      </c>
+      <c r="DX41">
+        <v>0</v>
+      </c>
+      <c r="DY41">
+        <v>0</v>
+      </c>
+      <c r="DZ41">
+        <v>0</v>
+      </c>
+      <c r="EA41">
+        <v>1</v>
+      </c>
+      <c r="EB41">
+        <v>1</v>
+      </c>
+      <c r="EC41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:120" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:133" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -12890,6 +14184,45 @@
         <v>0</v>
       </c>
       <c r="DP42">
+        <v>0</v>
+      </c>
+      <c r="DQ42">
+        <v>0</v>
+      </c>
+      <c r="DR42">
+        <v>0</v>
+      </c>
+      <c r="DS42">
+        <v>0</v>
+      </c>
+      <c r="DT42">
+        <v>0</v>
+      </c>
+      <c r="DU42">
+        <v>0</v>
+      </c>
+      <c r="DV42">
+        <v>0</v>
+      </c>
+      <c r="DW42">
+        <v>0</v>
+      </c>
+      <c r="DX42">
+        <v>0</v>
+      </c>
+      <c r="DY42">
+        <v>0</v>
+      </c>
+      <c r="DZ42">
+        <v>0</v>
+      </c>
+      <c r="EA42">
+        <v>0</v>
+      </c>
+      <c r="EB42">
+        <v>0</v>
+      </c>
+      <c r="EC42">
         <v>0</v>
       </c>
     </row>

--- a/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_queries_.xlsx
+++ b/01. HUB/volumen & xenofobia/tasa xenobia/tasa xenofobia regiones/colombia_regiones_queries_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\volumen &amp; xenofobia\tasa xenobia\tasa xenofobia regiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/volumen &amp; xenofobia/tasa xenobia/tasa xenofobia regiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1630C2BA-3783-4CC9-8928-841327CA0DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465544E-F8C7-0A40-A538-6A4FF89804B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25680" yWindow="660" windowWidth="25360" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="193">
   <si>
     <t>Chart Data Export</t>
   </si>
@@ -573,6 +573,45 @@
   </si>
   <si>
     <t>2025-03-31 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-05 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-12 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-19 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-26 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-30 05:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -608,8 +647,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,22 +954,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EC42"/>
+  <dimension ref="A1:FC42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="DJ18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="B9" sqref="B9"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="DR9" sqref="DQ9:EC9"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="121" max="121" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -945,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -953,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -961,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -969,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -977,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -985,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -993,408 +1033,486 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AB10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AE10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AH10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AK10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AL10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AN10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AP10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AR10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AS10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AT10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AU10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AV10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AW10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AX10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AY10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BA10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BB10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BC10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BD10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BE10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BF10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BG10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BH10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BI10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BJ10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BK10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BL10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BM10" t="s">
+      <c r="BM10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BN10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BO10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BP10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BQ10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BR10" t="s">
+      <c r="BR10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BS10" t="s">
+      <c r="BS10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BT10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BU10" t="s">
+      <c r="BU10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BV10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BW10" t="s">
+      <c r="BW10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BX10" t="s">
+      <c r="BX10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BY10" t="s">
+      <c r="BY10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BZ10" t="s">
+      <c r="BZ10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CA10" t="s">
+      <c r="CA10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CB10" t="s">
+      <c r="CB10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CC10" t="s">
+      <c r="CC10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CD10" t="s">
+      <c r="CD10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CE10" t="s">
+      <c r="CE10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CF10" t="s">
+      <c r="CF10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CG10" t="s">
+      <c r="CG10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CH10" t="s">
+      <c r="CH10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CI10" t="s">
+      <c r="CI10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CJ10" t="s">
+      <c r="CJ10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CK10" t="s">
+      <c r="CK10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CL10" t="s">
+      <c r="CL10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CM10" t="s">
+      <c r="CM10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CN10" t="s">
+      <c r="CN10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CO10" t="s">
+      <c r="CO10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CP10" t="s">
+      <c r="CP10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CQ10" t="s">
+      <c r="CQ10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CR10" t="s">
+      <c r="CR10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CS10" t="s">
+      <c r="CS10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="CT10" t="s">
+      <c r="CT10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="CU10" t="s">
+      <c r="CU10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="CV10" t="s">
+      <c r="CV10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CW10" t="s">
+      <c r="CW10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="CX10" t="s">
+      <c r="CX10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="CY10" t="s">
+      <c r="CY10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="CZ10" t="s">
+      <c r="CZ10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DA10" t="s">
+      <c r="DA10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DB10" t="s">
+      <c r="DB10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DC10" t="s">
+      <c r="DC10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DD10" t="s">
+      <c r="DD10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="DE10" t="s">
+      <c r="DE10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="DF10" t="s">
+      <c r="DF10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="DG10" t="s">
+      <c r="DG10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="DH10" t="s">
+      <c r="DH10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="DI10" t="s">
+      <c r="DI10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="DJ10" t="s">
+      <c r="DJ10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DK10" t="s">
+      <c r="DK10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DL10" t="s">
+      <c r="DL10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="DM10" t="s">
+      <c r="DM10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="DN10" t="s">
+      <c r="DN10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="DO10" t="s">
+      <c r="DO10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="DP10" t="s">
+      <c r="DP10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="DQ10" t="s">
+      <c r="DQ10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="DR10" t="s">
+      <c r="DR10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="DS10" t="s">
+      <c r="DS10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="DT10" t="s">
+      <c r="DT10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="DU10" t="s">
+      <c r="DU10" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="DV10" t="s">
+      <c r="DV10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="DW10" t="s">
+      <c r="DW10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="DX10" t="s">
+      <c r="DX10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="DY10" t="s">
+      <c r="DY10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="DZ10" t="s">
+      <c r="DZ10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="EA10" t="s">
+      <c r="EA10" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="EB10" t="s">
+      <c r="EB10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="EC10" t="s">
+      <c r="EC10" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="ED10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="EE10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="EF10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="EG10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="EH10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EI10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EJ10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EK10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EM10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="EN10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="EO10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EP10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EQ10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="ER10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="ES10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="ET10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="EU10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="EV10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="EW10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="EX10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="EY10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="EZ10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FA10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FB10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FC10" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1794,8 +1912,86 @@
       <c r="EC11">
         <v>352</v>
       </c>
+      <c r="ED11">
+        <v>2059</v>
+      </c>
+      <c r="EE11">
+        <v>1993</v>
+      </c>
+      <c r="EF11">
+        <v>1865</v>
+      </c>
+      <c r="EG11">
+        <v>1777</v>
+      </c>
+      <c r="EH11">
+        <v>1738</v>
+      </c>
+      <c r="EI11">
+        <v>1724</v>
+      </c>
+      <c r="EJ11">
+        <v>2019</v>
+      </c>
+      <c r="EK11">
+        <v>1994</v>
+      </c>
+      <c r="EL11">
+        <v>2385</v>
+      </c>
+      <c r="EM11">
+        <v>2246</v>
+      </c>
+      <c r="EN11">
+        <v>1850</v>
+      </c>
+      <c r="EO11">
+        <v>1770</v>
+      </c>
+      <c r="EP11">
+        <v>264</v>
+      </c>
+      <c r="EQ11">
+        <v>2059</v>
+      </c>
+      <c r="ER11">
+        <v>1993</v>
+      </c>
+      <c r="ES11">
+        <v>1865</v>
+      </c>
+      <c r="ET11">
+        <v>1777</v>
+      </c>
+      <c r="EU11">
+        <v>1738</v>
+      </c>
+      <c r="EV11">
+        <v>1724</v>
+      </c>
+      <c r="EW11">
+        <v>2019</v>
+      </c>
+      <c r="EX11">
+        <v>1994</v>
+      </c>
+      <c r="EY11">
+        <v>2385</v>
+      </c>
+      <c r="EZ11">
+        <v>2246</v>
+      </c>
+      <c r="FA11">
+        <v>1850</v>
+      </c>
+      <c r="FB11">
+        <v>1770</v>
+      </c>
+      <c r="FC11">
+        <v>264</v>
+      </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2195,8 +2391,86 @@
       <c r="EC12">
         <v>52</v>
       </c>
+      <c r="ED12">
+        <v>413</v>
+      </c>
+      <c r="EE12">
+        <v>415</v>
+      </c>
+      <c r="EF12">
+        <v>375</v>
+      </c>
+      <c r="EG12">
+        <v>418</v>
+      </c>
+      <c r="EH12">
+        <v>385</v>
+      </c>
+      <c r="EI12">
+        <v>343</v>
+      </c>
+      <c r="EJ12">
+        <v>402</v>
+      </c>
+      <c r="EK12">
+        <v>414</v>
+      </c>
+      <c r="EL12">
+        <v>489</v>
+      </c>
+      <c r="EM12">
+        <v>444</v>
+      </c>
+      <c r="EN12">
+        <v>444</v>
+      </c>
+      <c r="EO12">
+        <v>407</v>
+      </c>
+      <c r="EP12">
+        <v>66</v>
+      </c>
+      <c r="EQ12">
+        <v>413</v>
+      </c>
+      <c r="ER12">
+        <v>415</v>
+      </c>
+      <c r="ES12">
+        <v>375</v>
+      </c>
+      <c r="ET12">
+        <v>418</v>
+      </c>
+      <c r="EU12">
+        <v>385</v>
+      </c>
+      <c r="EV12">
+        <v>343</v>
+      </c>
+      <c r="EW12">
+        <v>402</v>
+      </c>
+      <c r="EX12">
+        <v>414</v>
+      </c>
+      <c r="EY12">
+        <v>489</v>
+      </c>
+      <c r="EZ12">
+        <v>444</v>
+      </c>
+      <c r="FA12">
+        <v>444</v>
+      </c>
+      <c r="FB12">
+        <v>407</v>
+      </c>
+      <c r="FC12">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2596,8 +2870,86 @@
       <c r="EC13">
         <v>40</v>
       </c>
+      <c r="ED13">
+        <v>286</v>
+      </c>
+      <c r="EE13">
+        <v>276</v>
+      </c>
+      <c r="EF13">
+        <v>315</v>
+      </c>
+      <c r="EG13">
+        <v>296</v>
+      </c>
+      <c r="EH13">
+        <v>240</v>
+      </c>
+      <c r="EI13">
+        <v>250</v>
+      </c>
+      <c r="EJ13">
+        <v>241</v>
+      </c>
+      <c r="EK13">
+        <v>273</v>
+      </c>
+      <c r="EL13">
+        <v>360</v>
+      </c>
+      <c r="EM13">
+        <v>316</v>
+      </c>
+      <c r="EN13">
+        <v>290</v>
+      </c>
+      <c r="EO13">
+        <v>260</v>
+      </c>
+      <c r="EP13">
+        <v>40</v>
+      </c>
+      <c r="EQ13">
+        <v>286</v>
+      </c>
+      <c r="ER13">
+        <v>276</v>
+      </c>
+      <c r="ES13">
+        <v>315</v>
+      </c>
+      <c r="ET13">
+        <v>296</v>
+      </c>
+      <c r="EU13">
+        <v>240</v>
+      </c>
+      <c r="EV13">
+        <v>250</v>
+      </c>
+      <c r="EW13">
+        <v>241</v>
+      </c>
+      <c r="EX13">
+        <v>273</v>
+      </c>
+      <c r="EY13">
+        <v>360</v>
+      </c>
+      <c r="EZ13">
+        <v>316</v>
+      </c>
+      <c r="FA13">
+        <v>290</v>
+      </c>
+      <c r="FB13">
+        <v>260</v>
+      </c>
+      <c r="FC13">
+        <v>40</v>
+      </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -2997,8 +3349,86 @@
       <c r="EC14">
         <v>41</v>
       </c>
+      <c r="ED14">
+        <v>200</v>
+      </c>
+      <c r="EE14">
+        <v>194</v>
+      </c>
+      <c r="EF14">
+        <v>185</v>
+      </c>
+      <c r="EG14">
+        <v>198</v>
+      </c>
+      <c r="EH14">
+        <v>135</v>
+      </c>
+      <c r="EI14">
+        <v>124</v>
+      </c>
+      <c r="EJ14">
+        <v>190</v>
+      </c>
+      <c r="EK14">
+        <v>157</v>
+      </c>
+      <c r="EL14">
+        <v>235</v>
+      </c>
+      <c r="EM14">
+        <v>243</v>
+      </c>
+      <c r="EN14">
+        <v>195</v>
+      </c>
+      <c r="EO14">
+        <v>229</v>
+      </c>
+      <c r="EP14">
+        <v>26</v>
+      </c>
+      <c r="EQ14">
+        <v>200</v>
+      </c>
+      <c r="ER14">
+        <v>194</v>
+      </c>
+      <c r="ES14">
+        <v>185</v>
+      </c>
+      <c r="ET14">
+        <v>198</v>
+      </c>
+      <c r="EU14">
+        <v>135</v>
+      </c>
+      <c r="EV14">
+        <v>124</v>
+      </c>
+      <c r="EW14">
+        <v>190</v>
+      </c>
+      <c r="EX14">
+        <v>157</v>
+      </c>
+      <c r="EY14">
+        <v>235</v>
+      </c>
+      <c r="EZ14">
+        <v>243</v>
+      </c>
+      <c r="FA14">
+        <v>195</v>
+      </c>
+      <c r="FB14">
+        <v>229</v>
+      </c>
+      <c r="FC14">
+        <v>26</v>
+      </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>126</v>
       </c>
@@ -3398,8 +3828,86 @@
       <c r="EC15">
         <v>20</v>
       </c>
+      <c r="ED15">
+        <v>106</v>
+      </c>
+      <c r="EE15">
+        <v>80</v>
+      </c>
+      <c r="EF15">
+        <v>70</v>
+      </c>
+      <c r="EG15">
+        <v>79</v>
+      </c>
+      <c r="EH15">
+        <v>100</v>
+      </c>
+      <c r="EI15">
+        <v>84</v>
+      </c>
+      <c r="EJ15">
+        <v>85</v>
+      </c>
+      <c r="EK15">
+        <v>95</v>
+      </c>
+      <c r="EL15">
+        <v>141</v>
+      </c>
+      <c r="EM15">
+        <v>116</v>
+      </c>
+      <c r="EN15">
+        <v>103</v>
+      </c>
+      <c r="EO15">
+        <v>93</v>
+      </c>
+      <c r="EP15">
+        <v>11</v>
+      </c>
+      <c r="EQ15">
+        <v>106</v>
+      </c>
+      <c r="ER15">
+        <v>80</v>
+      </c>
+      <c r="ES15">
+        <v>70</v>
+      </c>
+      <c r="ET15">
+        <v>79</v>
+      </c>
+      <c r="EU15">
+        <v>100</v>
+      </c>
+      <c r="EV15">
+        <v>84</v>
+      </c>
+      <c r="EW15">
+        <v>85</v>
+      </c>
+      <c r="EX15">
+        <v>95</v>
+      </c>
+      <c r="EY15">
+        <v>141</v>
+      </c>
+      <c r="EZ15">
+        <v>116</v>
+      </c>
+      <c r="FA15">
+        <v>103</v>
+      </c>
+      <c r="FB15">
+        <v>93</v>
+      </c>
+      <c r="FC15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3799,8 +4307,86 @@
       <c r="EC16">
         <v>49</v>
       </c>
+      <c r="ED16">
+        <v>172</v>
+      </c>
+      <c r="EE16">
+        <v>169</v>
+      </c>
+      <c r="EF16">
+        <v>176</v>
+      </c>
+      <c r="EG16">
+        <v>157</v>
+      </c>
+      <c r="EH16">
+        <v>102</v>
+      </c>
+      <c r="EI16">
+        <v>129</v>
+      </c>
+      <c r="EJ16">
+        <v>162</v>
+      </c>
+      <c r="EK16">
+        <v>153</v>
+      </c>
+      <c r="EL16">
+        <v>195</v>
+      </c>
+      <c r="EM16">
+        <v>172</v>
+      </c>
+      <c r="EN16">
+        <v>185</v>
+      </c>
+      <c r="EO16">
+        <v>140</v>
+      </c>
+      <c r="EP16">
+        <v>44</v>
+      </c>
+      <c r="EQ16">
+        <v>172</v>
+      </c>
+      <c r="ER16">
+        <v>169</v>
+      </c>
+      <c r="ES16">
+        <v>176</v>
+      </c>
+      <c r="ET16">
+        <v>157</v>
+      </c>
+      <c r="EU16">
+        <v>102</v>
+      </c>
+      <c r="EV16">
+        <v>129</v>
+      </c>
+      <c r="EW16">
+        <v>162</v>
+      </c>
+      <c r="EX16">
+        <v>153</v>
+      </c>
+      <c r="EY16">
+        <v>195</v>
+      </c>
+      <c r="EZ16">
+        <v>172</v>
+      </c>
+      <c r="FA16">
+        <v>185</v>
+      </c>
+      <c r="FB16">
+        <v>140</v>
+      </c>
+      <c r="FC16">
+        <v>44</v>
+      </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -4200,8 +4786,86 @@
       <c r="EC17">
         <v>2</v>
       </c>
+      <c r="ED17">
+        <v>56</v>
+      </c>
+      <c r="EE17">
+        <v>32</v>
+      </c>
+      <c r="EF17">
+        <v>35</v>
+      </c>
+      <c r="EG17">
+        <v>39</v>
+      </c>
+      <c r="EH17">
+        <v>36</v>
+      </c>
+      <c r="EI17">
+        <v>31</v>
+      </c>
+      <c r="EJ17">
+        <v>36</v>
+      </c>
+      <c r="EK17">
+        <v>39</v>
+      </c>
+      <c r="EL17">
+        <v>41</v>
+      </c>
+      <c r="EM17">
+        <v>47</v>
+      </c>
+      <c r="EN17">
+        <v>36</v>
+      </c>
+      <c r="EO17">
+        <v>38</v>
+      </c>
+      <c r="EP17">
+        <v>3</v>
+      </c>
+      <c r="EQ17">
+        <v>56</v>
+      </c>
+      <c r="ER17">
+        <v>32</v>
+      </c>
+      <c r="ES17">
+        <v>35</v>
+      </c>
+      <c r="ET17">
+        <v>39</v>
+      </c>
+      <c r="EU17">
+        <v>36</v>
+      </c>
+      <c r="EV17">
+        <v>31</v>
+      </c>
+      <c r="EW17">
+        <v>36</v>
+      </c>
+      <c r="EX17">
+        <v>39</v>
+      </c>
+      <c r="EY17">
+        <v>41</v>
+      </c>
+      <c r="EZ17">
+        <v>47</v>
+      </c>
+      <c r="FA17">
+        <v>36</v>
+      </c>
+      <c r="FB17">
+        <v>38</v>
+      </c>
+      <c r="FC17">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4601,8 +5265,86 @@
       <c r="EC18">
         <v>23</v>
       </c>
+      <c r="ED18">
+        <v>98</v>
+      </c>
+      <c r="EE18">
+        <v>54</v>
+      </c>
+      <c r="EF18">
+        <v>81</v>
+      </c>
+      <c r="EG18">
+        <v>88</v>
+      </c>
+      <c r="EH18">
+        <v>66</v>
+      </c>
+      <c r="EI18">
+        <v>38</v>
+      </c>
+      <c r="EJ18">
+        <v>71</v>
+      </c>
+      <c r="EK18">
+        <v>67</v>
+      </c>
+      <c r="EL18">
+        <v>70</v>
+      </c>
+      <c r="EM18">
+        <v>50</v>
+      </c>
+      <c r="EN18">
+        <v>53</v>
+      </c>
+      <c r="EO18">
+        <v>50</v>
+      </c>
+      <c r="EP18">
+        <v>8</v>
+      </c>
+      <c r="EQ18">
+        <v>98</v>
+      </c>
+      <c r="ER18">
+        <v>54</v>
+      </c>
+      <c r="ES18">
+        <v>81</v>
+      </c>
+      <c r="ET18">
+        <v>88</v>
+      </c>
+      <c r="EU18">
+        <v>66</v>
+      </c>
+      <c r="EV18">
+        <v>38</v>
+      </c>
+      <c r="EW18">
+        <v>71</v>
+      </c>
+      <c r="EX18">
+        <v>67</v>
+      </c>
+      <c r="EY18">
+        <v>70</v>
+      </c>
+      <c r="EZ18">
+        <v>50</v>
+      </c>
+      <c r="FA18">
+        <v>53</v>
+      </c>
+      <c r="FB18">
+        <v>50</v>
+      </c>
+      <c r="FC18">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -5002,8 +5744,86 @@
       <c r="EC19">
         <v>1</v>
       </c>
+      <c r="ED19">
+        <v>7</v>
+      </c>
+      <c r="EE19">
+        <v>20</v>
+      </c>
+      <c r="EF19">
+        <v>16</v>
+      </c>
+      <c r="EG19">
+        <v>24</v>
+      </c>
+      <c r="EH19">
+        <v>12</v>
+      </c>
+      <c r="EI19">
+        <v>18</v>
+      </c>
+      <c r="EJ19">
+        <v>11</v>
+      </c>
+      <c r="EK19">
+        <v>9</v>
+      </c>
+      <c r="EL19">
+        <v>25</v>
+      </c>
+      <c r="EM19">
+        <v>25</v>
+      </c>
+      <c r="EN19">
+        <v>14</v>
+      </c>
+      <c r="EO19">
+        <v>12</v>
+      </c>
+      <c r="EP19">
+        <v>3</v>
+      </c>
+      <c r="EQ19">
+        <v>7</v>
+      </c>
+      <c r="ER19">
+        <v>20</v>
+      </c>
+      <c r="ES19">
+        <v>16</v>
+      </c>
+      <c r="ET19">
+        <v>24</v>
+      </c>
+      <c r="EU19">
+        <v>12</v>
+      </c>
+      <c r="EV19">
+        <v>18</v>
+      </c>
+      <c r="EW19">
+        <v>11</v>
+      </c>
+      <c r="EX19">
+        <v>9</v>
+      </c>
+      <c r="EY19">
+        <v>25</v>
+      </c>
+      <c r="EZ19">
+        <v>25</v>
+      </c>
+      <c r="FA19">
+        <v>14</v>
+      </c>
+      <c r="FB19">
+        <v>12</v>
+      </c>
+      <c r="FC19">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>131</v>
       </c>
@@ -5403,8 +6223,86 @@
       <c r="EC20">
         <v>5</v>
       </c>
+      <c r="ED20">
+        <v>38</v>
+      </c>
+      <c r="EE20">
+        <v>30</v>
+      </c>
+      <c r="EF20">
+        <v>31</v>
+      </c>
+      <c r="EG20">
+        <v>22</v>
+      </c>
+      <c r="EH20">
+        <v>20</v>
+      </c>
+      <c r="EI20">
+        <v>26</v>
+      </c>
+      <c r="EJ20">
+        <v>29</v>
+      </c>
+      <c r="EK20">
+        <v>26</v>
+      </c>
+      <c r="EL20">
+        <v>29</v>
+      </c>
+      <c r="EM20">
+        <v>26</v>
+      </c>
+      <c r="EN20">
+        <v>37</v>
+      </c>
+      <c r="EO20">
+        <v>22</v>
+      </c>
+      <c r="EP20">
+        <v>1</v>
+      </c>
+      <c r="EQ20">
+        <v>38</v>
+      </c>
+      <c r="ER20">
+        <v>30</v>
+      </c>
+      <c r="ES20">
+        <v>31</v>
+      </c>
+      <c r="ET20">
+        <v>22</v>
+      </c>
+      <c r="EU20">
+        <v>20</v>
+      </c>
+      <c r="EV20">
+        <v>26</v>
+      </c>
+      <c r="EW20">
+        <v>29</v>
+      </c>
+      <c r="EX20">
+        <v>26</v>
+      </c>
+      <c r="EY20">
+        <v>29</v>
+      </c>
+      <c r="EZ20">
+        <v>26</v>
+      </c>
+      <c r="FA20">
+        <v>37</v>
+      </c>
+      <c r="FB20">
+        <v>22</v>
+      </c>
+      <c r="FC20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -5804,8 +6702,86 @@
       <c r="EC21">
         <v>2</v>
       </c>
+      <c r="ED21">
+        <v>27</v>
+      </c>
+      <c r="EE21">
+        <v>22</v>
+      </c>
+      <c r="EF21">
+        <v>24</v>
+      </c>
+      <c r="EG21">
+        <v>31</v>
+      </c>
+      <c r="EH21">
+        <v>35</v>
+      </c>
+      <c r="EI21">
+        <v>21</v>
+      </c>
+      <c r="EJ21">
+        <v>28</v>
+      </c>
+      <c r="EK21">
+        <v>22</v>
+      </c>
+      <c r="EL21">
+        <v>25</v>
+      </c>
+      <c r="EM21">
+        <v>31</v>
+      </c>
+      <c r="EN21">
+        <v>34</v>
+      </c>
+      <c r="EO21">
+        <v>26</v>
+      </c>
+      <c r="EP21">
+        <v>4</v>
+      </c>
+      <c r="EQ21">
+        <v>27</v>
+      </c>
+      <c r="ER21">
+        <v>22</v>
+      </c>
+      <c r="ES21">
+        <v>24</v>
+      </c>
+      <c r="ET21">
+        <v>31</v>
+      </c>
+      <c r="EU21">
+        <v>35</v>
+      </c>
+      <c r="EV21">
+        <v>21</v>
+      </c>
+      <c r="EW21">
+        <v>28</v>
+      </c>
+      <c r="EX21">
+        <v>22</v>
+      </c>
+      <c r="EY21">
+        <v>25</v>
+      </c>
+      <c r="EZ21">
+        <v>31</v>
+      </c>
+      <c r="FA21">
+        <v>34</v>
+      </c>
+      <c r="FB21">
+        <v>26</v>
+      </c>
+      <c r="FC21">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -6205,8 +7181,86 @@
       <c r="EC22">
         <v>3</v>
       </c>
+      <c r="ED22">
+        <v>14</v>
+      </c>
+      <c r="EE22">
+        <v>10</v>
+      </c>
+      <c r="EF22">
+        <v>10</v>
+      </c>
+      <c r="EG22">
+        <v>15</v>
+      </c>
+      <c r="EH22">
+        <v>22</v>
+      </c>
+      <c r="EI22">
+        <v>13</v>
+      </c>
+      <c r="EJ22">
+        <v>12</v>
+      </c>
+      <c r="EK22">
+        <v>19</v>
+      </c>
+      <c r="EL22">
+        <v>20</v>
+      </c>
+      <c r="EM22">
+        <v>16</v>
+      </c>
+      <c r="EN22">
+        <v>15</v>
+      </c>
+      <c r="EO22">
+        <v>15</v>
+      </c>
+      <c r="EP22">
+        <v>5</v>
+      </c>
+      <c r="EQ22">
+        <v>14</v>
+      </c>
+      <c r="ER22">
+        <v>10</v>
+      </c>
+      <c r="ES22">
+        <v>10</v>
+      </c>
+      <c r="ET22">
+        <v>15</v>
+      </c>
+      <c r="EU22">
+        <v>22</v>
+      </c>
+      <c r="EV22">
+        <v>13</v>
+      </c>
+      <c r="EW22">
+        <v>12</v>
+      </c>
+      <c r="EX22">
+        <v>19</v>
+      </c>
+      <c r="EY22">
+        <v>20</v>
+      </c>
+      <c r="EZ22">
+        <v>16</v>
+      </c>
+      <c r="FA22">
+        <v>15</v>
+      </c>
+      <c r="FB22">
+        <v>15</v>
+      </c>
+      <c r="FC22">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -6606,8 +7660,86 @@
       <c r="EC23">
         <v>1</v>
       </c>
+      <c r="ED23">
+        <v>9</v>
+      </c>
+      <c r="EE23">
+        <v>13</v>
+      </c>
+      <c r="EF23">
+        <v>12</v>
+      </c>
+      <c r="EG23">
+        <v>16</v>
+      </c>
+      <c r="EH23">
+        <v>9</v>
+      </c>
+      <c r="EI23">
+        <v>10</v>
+      </c>
+      <c r="EJ23">
+        <v>17</v>
+      </c>
+      <c r="EK23">
+        <v>17</v>
+      </c>
+      <c r="EL23">
+        <v>23</v>
+      </c>
+      <c r="EM23">
+        <v>16</v>
+      </c>
+      <c r="EN23">
+        <v>21</v>
+      </c>
+      <c r="EO23">
+        <v>18</v>
+      </c>
+      <c r="EP23">
+        <v>4</v>
+      </c>
+      <c r="EQ23">
+        <v>9</v>
+      </c>
+      <c r="ER23">
+        <v>13</v>
+      </c>
+      <c r="ES23">
+        <v>12</v>
+      </c>
+      <c r="ET23">
+        <v>16</v>
+      </c>
+      <c r="EU23">
+        <v>9</v>
+      </c>
+      <c r="EV23">
+        <v>10</v>
+      </c>
+      <c r="EW23">
+        <v>17</v>
+      </c>
+      <c r="EX23">
+        <v>17</v>
+      </c>
+      <c r="EY23">
+        <v>23</v>
+      </c>
+      <c r="EZ23">
+        <v>16</v>
+      </c>
+      <c r="FA23">
+        <v>21</v>
+      </c>
+      <c r="FB23">
+        <v>18</v>
+      </c>
+      <c r="FC23">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7007,8 +8139,86 @@
       <c r="EC24">
         <v>5</v>
       </c>
+      <c r="ED24">
+        <v>9</v>
+      </c>
+      <c r="EE24">
+        <v>19</v>
+      </c>
+      <c r="EF24">
+        <v>19</v>
+      </c>
+      <c r="EG24">
+        <v>11</v>
+      </c>
+      <c r="EH24">
+        <v>18</v>
+      </c>
+      <c r="EI24">
+        <v>7</v>
+      </c>
+      <c r="EJ24">
+        <v>19</v>
+      </c>
+      <c r="EK24">
+        <v>20</v>
+      </c>
+      <c r="EL24">
+        <v>16</v>
+      </c>
+      <c r="EM24">
+        <v>16</v>
+      </c>
+      <c r="EN24">
+        <v>42</v>
+      </c>
+      <c r="EO24">
+        <v>20</v>
+      </c>
+      <c r="EP24">
+        <v>1</v>
+      </c>
+      <c r="EQ24">
+        <v>9</v>
+      </c>
+      <c r="ER24">
+        <v>19</v>
+      </c>
+      <c r="ES24">
+        <v>19</v>
+      </c>
+      <c r="ET24">
+        <v>11</v>
+      </c>
+      <c r="EU24">
+        <v>18</v>
+      </c>
+      <c r="EV24">
+        <v>7</v>
+      </c>
+      <c r="EW24">
+        <v>19</v>
+      </c>
+      <c r="EX24">
+        <v>20</v>
+      </c>
+      <c r="EY24">
+        <v>16</v>
+      </c>
+      <c r="EZ24">
+        <v>16</v>
+      </c>
+      <c r="FA24">
+        <v>42</v>
+      </c>
+      <c r="FB24">
+        <v>20</v>
+      </c>
+      <c r="FC24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -7408,8 +8618,86 @@
       <c r="EC25">
         <v>0</v>
       </c>
+      <c r="ED25">
+        <v>10</v>
+      </c>
+      <c r="EE25">
+        <v>16</v>
+      </c>
+      <c r="EF25">
+        <v>11</v>
+      </c>
+      <c r="EG25">
+        <v>7</v>
+      </c>
+      <c r="EH25">
+        <v>8</v>
+      </c>
+      <c r="EI25">
+        <v>11</v>
+      </c>
+      <c r="EJ25">
+        <v>13</v>
+      </c>
+      <c r="EK25">
+        <v>11</v>
+      </c>
+      <c r="EL25">
+        <v>12</v>
+      </c>
+      <c r="EM25">
+        <v>18</v>
+      </c>
+      <c r="EN25">
+        <v>18</v>
+      </c>
+      <c r="EO25">
+        <v>10</v>
+      </c>
+      <c r="EP25">
+        <v>1</v>
+      </c>
+      <c r="EQ25">
+        <v>10</v>
+      </c>
+      <c r="ER25">
+        <v>16</v>
+      </c>
+      <c r="ES25">
+        <v>11</v>
+      </c>
+      <c r="ET25">
+        <v>7</v>
+      </c>
+      <c r="EU25">
+        <v>8</v>
+      </c>
+      <c r="EV25">
+        <v>11</v>
+      </c>
+      <c r="EW25">
+        <v>13</v>
+      </c>
+      <c r="EX25">
+        <v>11</v>
+      </c>
+      <c r="EY25">
+        <v>12</v>
+      </c>
+      <c r="EZ25">
+        <v>18</v>
+      </c>
+      <c r="FA25">
+        <v>18</v>
+      </c>
+      <c r="FB25">
+        <v>10</v>
+      </c>
+      <c r="FC25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -7809,8 +9097,86 @@
       <c r="EC26">
         <v>6</v>
       </c>
+      <c r="ED26">
+        <v>30</v>
+      </c>
+      <c r="EE26">
+        <v>18</v>
+      </c>
+      <c r="EF26">
+        <v>19</v>
+      </c>
+      <c r="EG26">
+        <v>24</v>
+      </c>
+      <c r="EH26">
+        <v>22</v>
+      </c>
+      <c r="EI26">
+        <v>20</v>
+      </c>
+      <c r="EJ26">
+        <v>31</v>
+      </c>
+      <c r="EK26">
+        <v>21</v>
+      </c>
+      <c r="EL26">
+        <v>23</v>
+      </c>
+      <c r="EM26">
+        <v>29</v>
+      </c>
+      <c r="EN26">
+        <v>17</v>
+      </c>
+      <c r="EO26">
+        <v>18</v>
+      </c>
+      <c r="EP26">
+        <v>4</v>
+      </c>
+      <c r="EQ26">
+        <v>30</v>
+      </c>
+      <c r="ER26">
+        <v>18</v>
+      </c>
+      <c r="ES26">
+        <v>19</v>
+      </c>
+      <c r="ET26">
+        <v>24</v>
+      </c>
+      <c r="EU26">
+        <v>22</v>
+      </c>
+      <c r="EV26">
+        <v>20</v>
+      </c>
+      <c r="EW26">
+        <v>31</v>
+      </c>
+      <c r="EX26">
+        <v>21</v>
+      </c>
+      <c r="EY26">
+        <v>23</v>
+      </c>
+      <c r="EZ26">
+        <v>29</v>
+      </c>
+      <c r="FA26">
+        <v>17</v>
+      </c>
+      <c r="FB26">
+        <v>18</v>
+      </c>
+      <c r="FC26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -8210,8 +9576,86 @@
       <c r="EC27">
         <v>1</v>
       </c>
+      <c r="ED27">
+        <v>16</v>
+      </c>
+      <c r="EE27">
+        <v>12</v>
+      </c>
+      <c r="EF27">
+        <v>5</v>
+      </c>
+      <c r="EG27">
+        <v>9</v>
+      </c>
+      <c r="EH27">
+        <v>9</v>
+      </c>
+      <c r="EI27">
+        <v>18</v>
+      </c>
+      <c r="EJ27">
+        <v>11</v>
+      </c>
+      <c r="EK27">
+        <v>5</v>
+      </c>
+      <c r="EL27">
+        <v>12</v>
+      </c>
+      <c r="EM27">
+        <v>18</v>
+      </c>
+      <c r="EN27">
+        <v>7</v>
+      </c>
+      <c r="EO27">
+        <v>10</v>
+      </c>
+      <c r="EP27">
+        <v>2</v>
+      </c>
+      <c r="EQ27">
+        <v>16</v>
+      </c>
+      <c r="ER27">
+        <v>12</v>
+      </c>
+      <c r="ES27">
+        <v>5</v>
+      </c>
+      <c r="ET27">
+        <v>9</v>
+      </c>
+      <c r="EU27">
+        <v>9</v>
+      </c>
+      <c r="EV27">
+        <v>18</v>
+      </c>
+      <c r="EW27">
+        <v>11</v>
+      </c>
+      <c r="EX27">
+        <v>5</v>
+      </c>
+      <c r="EY27">
+        <v>12</v>
+      </c>
+      <c r="EZ27">
+        <v>18</v>
+      </c>
+      <c r="FA27">
+        <v>7</v>
+      </c>
+      <c r="FB27">
+        <v>10</v>
+      </c>
+      <c r="FC27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -8611,8 +10055,86 @@
       <c r="EC28">
         <v>4</v>
       </c>
+      <c r="ED28">
+        <v>16</v>
+      </c>
+      <c r="EE28">
+        <v>18</v>
+      </c>
+      <c r="EF28">
+        <v>15</v>
+      </c>
+      <c r="EG28">
+        <v>18</v>
+      </c>
+      <c r="EH28">
+        <v>19</v>
+      </c>
+      <c r="EI28">
+        <v>16</v>
+      </c>
+      <c r="EJ28">
+        <v>25</v>
+      </c>
+      <c r="EK28">
+        <v>12</v>
+      </c>
+      <c r="EL28">
+        <v>26</v>
+      </c>
+      <c r="EM28">
+        <v>14</v>
+      </c>
+      <c r="EN28">
+        <v>28</v>
+      </c>
+      <c r="EO28">
+        <v>11</v>
+      </c>
+      <c r="EP28">
+        <v>3</v>
+      </c>
+      <c r="EQ28">
+        <v>16</v>
+      </c>
+      <c r="ER28">
+        <v>18</v>
+      </c>
+      <c r="ES28">
+        <v>15</v>
+      </c>
+      <c r="ET28">
+        <v>18</v>
+      </c>
+      <c r="EU28">
+        <v>19</v>
+      </c>
+      <c r="EV28">
+        <v>16</v>
+      </c>
+      <c r="EW28">
+        <v>25</v>
+      </c>
+      <c r="EX28">
+        <v>12</v>
+      </c>
+      <c r="EY28">
+        <v>26</v>
+      </c>
+      <c r="EZ28">
+        <v>14</v>
+      </c>
+      <c r="FA28">
+        <v>28</v>
+      </c>
+      <c r="FB28">
+        <v>11</v>
+      </c>
+      <c r="FC28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>140</v>
       </c>
@@ -9012,8 +10534,86 @@
       <c r="EC29">
         <v>0</v>
       </c>
+      <c r="ED29">
+        <v>17</v>
+      </c>
+      <c r="EE29">
+        <v>11</v>
+      </c>
+      <c r="EF29">
+        <v>11</v>
+      </c>
+      <c r="EG29">
+        <v>9</v>
+      </c>
+      <c r="EH29">
+        <v>11</v>
+      </c>
+      <c r="EI29">
+        <v>3</v>
+      </c>
+      <c r="EJ29">
+        <v>9</v>
+      </c>
+      <c r="EK29">
+        <v>7</v>
+      </c>
+      <c r="EL29">
+        <v>5</v>
+      </c>
+      <c r="EM29">
+        <v>9</v>
+      </c>
+      <c r="EN29">
+        <v>10</v>
+      </c>
+      <c r="EO29">
+        <v>7</v>
+      </c>
+      <c r="EP29">
+        <v>0</v>
+      </c>
+      <c r="EQ29">
+        <v>17</v>
+      </c>
+      <c r="ER29">
+        <v>11</v>
+      </c>
+      <c r="ES29">
+        <v>11</v>
+      </c>
+      <c r="ET29">
+        <v>9</v>
+      </c>
+      <c r="EU29">
+        <v>11</v>
+      </c>
+      <c r="EV29">
+        <v>3</v>
+      </c>
+      <c r="EW29">
+        <v>9</v>
+      </c>
+      <c r="EX29">
+        <v>7</v>
+      </c>
+      <c r="EY29">
+        <v>5</v>
+      </c>
+      <c r="EZ29">
+        <v>9</v>
+      </c>
+      <c r="FA29">
+        <v>10</v>
+      </c>
+      <c r="FB29">
+        <v>7</v>
+      </c>
+      <c r="FC29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>141</v>
       </c>
@@ -9413,8 +11013,86 @@
       <c r="EC30">
         <v>4</v>
       </c>
+      <c r="ED30">
+        <v>14</v>
+      </c>
+      <c r="EE30">
+        <v>6</v>
+      </c>
+      <c r="EF30">
+        <v>4</v>
+      </c>
+      <c r="EG30">
+        <v>3</v>
+      </c>
+      <c r="EH30">
+        <v>3</v>
+      </c>
+      <c r="EI30">
+        <v>3</v>
+      </c>
+      <c r="EJ30">
+        <v>5</v>
+      </c>
+      <c r="EK30">
+        <v>2</v>
+      </c>
+      <c r="EL30">
+        <v>8</v>
+      </c>
+      <c r="EM30">
+        <v>11</v>
+      </c>
+      <c r="EN30">
+        <v>4</v>
+      </c>
+      <c r="EO30">
+        <v>4</v>
+      </c>
+      <c r="EP30">
+        <v>0</v>
+      </c>
+      <c r="EQ30">
+        <v>14</v>
+      </c>
+      <c r="ER30">
+        <v>6</v>
+      </c>
+      <c r="ES30">
+        <v>4</v>
+      </c>
+      <c r="ET30">
+        <v>3</v>
+      </c>
+      <c r="EU30">
+        <v>3</v>
+      </c>
+      <c r="EV30">
+        <v>3</v>
+      </c>
+      <c r="EW30">
+        <v>5</v>
+      </c>
+      <c r="EX30">
+        <v>2</v>
+      </c>
+      <c r="EY30">
+        <v>8</v>
+      </c>
+      <c r="EZ30">
+        <v>11</v>
+      </c>
+      <c r="FA30">
+        <v>4</v>
+      </c>
+      <c r="FB30">
+        <v>4</v>
+      </c>
+      <c r="FC30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -9814,8 +11492,86 @@
       <c r="EC31">
         <v>0</v>
       </c>
+      <c r="ED31">
+        <v>2</v>
+      </c>
+      <c r="EE31">
+        <v>7</v>
+      </c>
+      <c r="EF31">
+        <v>2</v>
+      </c>
+      <c r="EG31">
+        <v>9</v>
+      </c>
+      <c r="EH31">
+        <v>8</v>
+      </c>
+      <c r="EI31">
+        <v>9</v>
+      </c>
+      <c r="EJ31">
+        <v>7</v>
+      </c>
+      <c r="EK31">
+        <v>13</v>
+      </c>
+      <c r="EL31">
+        <v>9</v>
+      </c>
+      <c r="EM31">
+        <v>9</v>
+      </c>
+      <c r="EN31">
+        <v>4</v>
+      </c>
+      <c r="EO31">
+        <v>6</v>
+      </c>
+      <c r="EP31">
+        <v>0</v>
+      </c>
+      <c r="EQ31">
+        <v>2</v>
+      </c>
+      <c r="ER31">
+        <v>7</v>
+      </c>
+      <c r="ES31">
+        <v>2</v>
+      </c>
+      <c r="ET31">
+        <v>9</v>
+      </c>
+      <c r="EU31">
+        <v>8</v>
+      </c>
+      <c r="EV31">
+        <v>9</v>
+      </c>
+      <c r="EW31">
+        <v>7</v>
+      </c>
+      <c r="EX31">
+        <v>13</v>
+      </c>
+      <c r="EY31">
+        <v>9</v>
+      </c>
+      <c r="EZ31">
+        <v>9</v>
+      </c>
+      <c r="FA31">
+        <v>4</v>
+      </c>
+      <c r="FB31">
+        <v>6</v>
+      </c>
+      <c r="FC31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -10215,8 +11971,86 @@
       <c r="EC32">
         <v>0</v>
       </c>
+      <c r="ED32">
+        <v>2</v>
+      </c>
+      <c r="EE32">
+        <v>5</v>
+      </c>
+      <c r="EF32">
+        <v>5</v>
+      </c>
+      <c r="EG32">
+        <v>7</v>
+      </c>
+      <c r="EH32">
+        <v>10</v>
+      </c>
+      <c r="EI32">
+        <v>5</v>
+      </c>
+      <c r="EJ32">
+        <v>13</v>
+      </c>
+      <c r="EK32">
+        <v>11</v>
+      </c>
+      <c r="EL32">
+        <v>4</v>
+      </c>
+      <c r="EM32">
+        <v>16</v>
+      </c>
+      <c r="EN32">
+        <v>7</v>
+      </c>
+      <c r="EO32">
+        <v>11</v>
+      </c>
+      <c r="EP32">
+        <v>1</v>
+      </c>
+      <c r="EQ32">
+        <v>2</v>
+      </c>
+      <c r="ER32">
+        <v>5</v>
+      </c>
+      <c r="ES32">
+        <v>5</v>
+      </c>
+      <c r="ET32">
+        <v>7</v>
+      </c>
+      <c r="EU32">
+        <v>10</v>
+      </c>
+      <c r="EV32">
+        <v>5</v>
+      </c>
+      <c r="EW32">
+        <v>13</v>
+      </c>
+      <c r="EX32">
+        <v>11</v>
+      </c>
+      <c r="EY32">
+        <v>4</v>
+      </c>
+      <c r="EZ32">
+        <v>16</v>
+      </c>
+      <c r="FA32">
+        <v>7</v>
+      </c>
+      <c r="FB32">
+        <v>11</v>
+      </c>
+      <c r="FC32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -10616,8 +12450,86 @@
       <c r="EC33">
         <v>0</v>
       </c>
+      <c r="ED33">
+        <v>11</v>
+      </c>
+      <c r="EE33">
+        <v>12</v>
+      </c>
+      <c r="EF33">
+        <v>5</v>
+      </c>
+      <c r="EG33">
+        <v>18</v>
+      </c>
+      <c r="EH33">
+        <v>7</v>
+      </c>
+      <c r="EI33">
+        <v>29</v>
+      </c>
+      <c r="EJ33">
+        <v>10</v>
+      </c>
+      <c r="EK33">
+        <v>13</v>
+      </c>
+      <c r="EL33">
+        <v>13</v>
+      </c>
+      <c r="EM33">
+        <v>6</v>
+      </c>
+      <c r="EN33">
+        <v>11</v>
+      </c>
+      <c r="EO33">
+        <v>7</v>
+      </c>
+      <c r="EP33">
+        <v>0</v>
+      </c>
+      <c r="EQ33">
+        <v>11</v>
+      </c>
+      <c r="ER33">
+        <v>12</v>
+      </c>
+      <c r="ES33">
+        <v>5</v>
+      </c>
+      <c r="ET33">
+        <v>18</v>
+      </c>
+      <c r="EU33">
+        <v>7</v>
+      </c>
+      <c r="EV33">
+        <v>29</v>
+      </c>
+      <c r="EW33">
+        <v>10</v>
+      </c>
+      <c r="EX33">
+        <v>13</v>
+      </c>
+      <c r="EY33">
+        <v>13</v>
+      </c>
+      <c r="EZ33">
+        <v>6</v>
+      </c>
+      <c r="FA33">
+        <v>11</v>
+      </c>
+      <c r="FB33">
+        <v>7</v>
+      </c>
+      <c r="FC33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -11017,8 +12929,86 @@
       <c r="EC34">
         <v>3</v>
       </c>
+      <c r="ED34">
+        <v>0</v>
+      </c>
+      <c r="EE34">
+        <v>1</v>
+      </c>
+      <c r="EF34">
+        <v>11</v>
+      </c>
+      <c r="EG34">
+        <v>2</v>
+      </c>
+      <c r="EH34">
+        <v>2</v>
+      </c>
+      <c r="EI34">
+        <v>1</v>
+      </c>
+      <c r="EJ34">
+        <v>2</v>
+      </c>
+      <c r="EK34">
+        <v>4</v>
+      </c>
+      <c r="EL34">
+        <v>5</v>
+      </c>
+      <c r="EM34">
+        <v>7</v>
+      </c>
+      <c r="EN34">
+        <v>6</v>
+      </c>
+      <c r="EO34">
+        <v>4</v>
+      </c>
+      <c r="EP34">
+        <v>0</v>
+      </c>
+      <c r="EQ34">
+        <v>0</v>
+      </c>
+      <c r="ER34">
+        <v>1</v>
+      </c>
+      <c r="ES34">
+        <v>11</v>
+      </c>
+      <c r="ET34">
+        <v>2</v>
+      </c>
+      <c r="EU34">
+        <v>2</v>
+      </c>
+      <c r="EV34">
+        <v>1</v>
+      </c>
+      <c r="EW34">
+        <v>2</v>
+      </c>
+      <c r="EX34">
+        <v>4</v>
+      </c>
+      <c r="EY34">
+        <v>5</v>
+      </c>
+      <c r="EZ34">
+        <v>7</v>
+      </c>
+      <c r="FA34">
+        <v>6</v>
+      </c>
+      <c r="FB34">
+        <v>4</v>
+      </c>
+      <c r="FC34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -11418,8 +13408,86 @@
       <c r="EC35">
         <v>0</v>
       </c>
+      <c r="ED35">
+        <v>5</v>
+      </c>
+      <c r="EE35">
+        <v>0</v>
+      </c>
+      <c r="EF35">
+        <v>3</v>
+      </c>
+      <c r="EG35">
+        <v>0</v>
+      </c>
+      <c r="EH35">
+        <v>1</v>
+      </c>
+      <c r="EI35">
+        <v>0</v>
+      </c>
+      <c r="EJ35">
+        <v>2</v>
+      </c>
+      <c r="EK35">
+        <v>1</v>
+      </c>
+      <c r="EL35">
+        <v>0</v>
+      </c>
+      <c r="EM35">
+        <v>2</v>
+      </c>
+      <c r="EN35">
+        <v>1</v>
+      </c>
+      <c r="EO35">
+        <v>3</v>
+      </c>
+      <c r="EP35">
+        <v>0</v>
+      </c>
+      <c r="EQ35">
+        <v>5</v>
+      </c>
+      <c r="ER35">
+        <v>0</v>
+      </c>
+      <c r="ES35">
+        <v>3</v>
+      </c>
+      <c r="ET35">
+        <v>0</v>
+      </c>
+      <c r="EU35">
+        <v>1</v>
+      </c>
+      <c r="EV35">
+        <v>0</v>
+      </c>
+      <c r="EW35">
+        <v>2</v>
+      </c>
+      <c r="EX35">
+        <v>1</v>
+      </c>
+      <c r="EY35">
+        <v>0</v>
+      </c>
+      <c r="EZ35">
+        <v>2</v>
+      </c>
+      <c r="FA35">
+        <v>1</v>
+      </c>
+      <c r="FB35">
+        <v>3</v>
+      </c>
+      <c r="FC35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -11819,8 +13887,86 @@
       <c r="EC36">
         <v>1</v>
       </c>
+      <c r="ED36">
+        <v>3</v>
+      </c>
+      <c r="EE36">
+        <v>0</v>
+      </c>
+      <c r="EF36">
+        <v>0</v>
+      </c>
+      <c r="EG36">
+        <v>2</v>
+      </c>
+      <c r="EH36">
+        <v>2</v>
+      </c>
+      <c r="EI36">
+        <v>6</v>
+      </c>
+      <c r="EJ36">
+        <v>4</v>
+      </c>
+      <c r="EK36">
+        <v>3</v>
+      </c>
+      <c r="EL36">
+        <v>4</v>
+      </c>
+      <c r="EM36">
+        <v>2</v>
+      </c>
+      <c r="EN36">
+        <v>4</v>
+      </c>
+      <c r="EO36">
+        <v>3</v>
+      </c>
+      <c r="EP36">
+        <v>1</v>
+      </c>
+      <c r="EQ36">
+        <v>3</v>
+      </c>
+      <c r="ER36">
+        <v>0</v>
+      </c>
+      <c r="ES36">
+        <v>0</v>
+      </c>
+      <c r="ET36">
+        <v>2</v>
+      </c>
+      <c r="EU36">
+        <v>2</v>
+      </c>
+      <c r="EV36">
+        <v>6</v>
+      </c>
+      <c r="EW36">
+        <v>4</v>
+      </c>
+      <c r="EX36">
+        <v>3</v>
+      </c>
+      <c r="EY36">
+        <v>4</v>
+      </c>
+      <c r="EZ36">
+        <v>2</v>
+      </c>
+      <c r="FA36">
+        <v>4</v>
+      </c>
+      <c r="FB36">
+        <v>3</v>
+      </c>
+      <c r="FC36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -12220,8 +14366,86 @@
       <c r="EC37">
         <v>0</v>
       </c>
+      <c r="ED37">
+        <v>3</v>
+      </c>
+      <c r="EE37">
+        <v>2</v>
+      </c>
+      <c r="EF37">
+        <v>1</v>
+      </c>
+      <c r="EG37">
+        <v>0</v>
+      </c>
+      <c r="EH37">
+        <v>1</v>
+      </c>
+      <c r="EI37">
+        <v>0</v>
+      </c>
+      <c r="EJ37">
+        <v>0</v>
+      </c>
+      <c r="EK37">
+        <v>1</v>
+      </c>
+      <c r="EL37">
+        <v>4</v>
+      </c>
+      <c r="EM37">
+        <v>4</v>
+      </c>
+      <c r="EN37">
+        <v>0</v>
+      </c>
+      <c r="EO37">
+        <v>0</v>
+      </c>
+      <c r="EP37">
+        <v>0</v>
+      </c>
+      <c r="EQ37">
+        <v>3</v>
+      </c>
+      <c r="ER37">
+        <v>2</v>
+      </c>
+      <c r="ES37">
+        <v>1</v>
+      </c>
+      <c r="ET37">
+        <v>0</v>
+      </c>
+      <c r="EU37">
+        <v>1</v>
+      </c>
+      <c r="EV37">
+        <v>0</v>
+      </c>
+      <c r="EW37">
+        <v>0</v>
+      </c>
+      <c r="EX37">
+        <v>1</v>
+      </c>
+      <c r="EY37">
+        <v>4</v>
+      </c>
+      <c r="EZ37">
+        <v>4</v>
+      </c>
+      <c r="FA37">
+        <v>0</v>
+      </c>
+      <c r="FB37">
+        <v>0</v>
+      </c>
+      <c r="FC37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -12621,8 +14845,86 @@
       <c r="EC38">
         <v>1</v>
       </c>
+      <c r="ED38">
+        <v>1</v>
+      </c>
+      <c r="EE38">
+        <v>2</v>
+      </c>
+      <c r="EF38">
+        <v>2</v>
+      </c>
+      <c r="EG38">
+        <v>3</v>
+      </c>
+      <c r="EH38">
+        <v>2</v>
+      </c>
+      <c r="EI38">
+        <v>2</v>
+      </c>
+      <c r="EJ38">
+        <v>6</v>
+      </c>
+      <c r="EK38">
+        <v>4</v>
+      </c>
+      <c r="EL38">
+        <v>2</v>
+      </c>
+      <c r="EM38">
+        <v>0</v>
+      </c>
+      <c r="EN38">
+        <v>2</v>
+      </c>
+      <c r="EO38">
+        <v>1</v>
+      </c>
+      <c r="EP38">
+        <v>0</v>
+      </c>
+      <c r="EQ38">
+        <v>1</v>
+      </c>
+      <c r="ER38">
+        <v>2</v>
+      </c>
+      <c r="ES38">
+        <v>2</v>
+      </c>
+      <c r="ET38">
+        <v>3</v>
+      </c>
+      <c r="EU38">
+        <v>2</v>
+      </c>
+      <c r="EV38">
+        <v>2</v>
+      </c>
+      <c r="EW38">
+        <v>6</v>
+      </c>
+      <c r="EX38">
+        <v>4</v>
+      </c>
+      <c r="EY38">
+        <v>2</v>
+      </c>
+      <c r="EZ38">
+        <v>0</v>
+      </c>
+      <c r="FA38">
+        <v>2</v>
+      </c>
+      <c r="FB38">
+        <v>1</v>
+      </c>
+      <c r="FC38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -13022,8 +15324,86 @@
       <c r="EC39">
         <v>0</v>
       </c>
+      <c r="ED39">
+        <v>0</v>
+      </c>
+      <c r="EE39">
+        <v>0</v>
+      </c>
+      <c r="EF39">
+        <v>0</v>
+      </c>
+      <c r="EG39">
+        <v>0</v>
+      </c>
+      <c r="EH39">
+        <v>0</v>
+      </c>
+      <c r="EI39">
+        <v>0</v>
+      </c>
+      <c r="EJ39">
+        <v>0</v>
+      </c>
+      <c r="EK39">
+        <v>0</v>
+      </c>
+      <c r="EL39">
+        <v>0</v>
+      </c>
+      <c r="EM39">
+        <v>0</v>
+      </c>
+      <c r="EN39">
+        <v>0</v>
+      </c>
+      <c r="EO39">
+        <v>0</v>
+      </c>
+      <c r="EP39">
+        <v>0</v>
+      </c>
+      <c r="EQ39">
+        <v>0</v>
+      </c>
+      <c r="ER39">
+        <v>0</v>
+      </c>
+      <c r="ES39">
+        <v>0</v>
+      </c>
+      <c r="ET39">
+        <v>0</v>
+      </c>
+      <c r="EU39">
+        <v>0</v>
+      </c>
+      <c r="EV39">
+        <v>0</v>
+      </c>
+      <c r="EW39">
+        <v>0</v>
+      </c>
+      <c r="EX39">
+        <v>0</v>
+      </c>
+      <c r="EY39">
+        <v>0</v>
+      </c>
+      <c r="EZ39">
+        <v>0</v>
+      </c>
+      <c r="FA39">
+        <v>0</v>
+      </c>
+      <c r="FB39">
+        <v>0</v>
+      </c>
+      <c r="FC39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -13423,8 +15803,86 @@
       <c r="EC40">
         <v>0</v>
       </c>
+      <c r="ED40">
+        <v>0</v>
+      </c>
+      <c r="EE40">
+        <v>0</v>
+      </c>
+      <c r="EF40">
+        <v>0</v>
+      </c>
+      <c r="EG40">
+        <v>0</v>
+      </c>
+      <c r="EH40">
+        <v>0</v>
+      </c>
+      <c r="EI40">
+        <v>0</v>
+      </c>
+      <c r="EJ40">
+        <v>0</v>
+      </c>
+      <c r="EK40">
+        <v>0</v>
+      </c>
+      <c r="EL40">
+        <v>0</v>
+      </c>
+      <c r="EM40">
+        <v>0</v>
+      </c>
+      <c r="EN40">
+        <v>0</v>
+      </c>
+      <c r="EO40">
+        <v>0</v>
+      </c>
+      <c r="EP40">
+        <v>0</v>
+      </c>
+      <c r="EQ40">
+        <v>0</v>
+      </c>
+      <c r="ER40">
+        <v>0</v>
+      </c>
+      <c r="ES40">
+        <v>0</v>
+      </c>
+      <c r="ET40">
+        <v>0</v>
+      </c>
+      <c r="EU40">
+        <v>0</v>
+      </c>
+      <c r="EV40">
+        <v>0</v>
+      </c>
+      <c r="EW40">
+        <v>0</v>
+      </c>
+      <c r="EX40">
+        <v>0</v>
+      </c>
+      <c r="EY40">
+        <v>0</v>
+      </c>
+      <c r="EZ40">
+        <v>0</v>
+      </c>
+      <c r="FA40">
+        <v>0</v>
+      </c>
+      <c r="FB40">
+        <v>0</v>
+      </c>
+      <c r="FC40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -13824,8 +16282,86 @@
       <c r="EC41">
         <v>0</v>
       </c>
+      <c r="ED41">
+        <v>1</v>
+      </c>
+      <c r="EE41">
+        <v>0</v>
+      </c>
+      <c r="EF41">
+        <v>0</v>
+      </c>
+      <c r="EG41">
+        <v>0</v>
+      </c>
+      <c r="EH41">
+        <v>3</v>
+      </c>
+      <c r="EI41">
+        <v>0</v>
+      </c>
+      <c r="EJ41">
+        <v>0</v>
+      </c>
+      <c r="EK41">
+        <v>0</v>
+      </c>
+      <c r="EL41">
+        <v>0</v>
+      </c>
+      <c r="EM41">
+        <v>0</v>
+      </c>
+      <c r="EN41">
+        <v>0</v>
+      </c>
+      <c r="EO41">
+        <v>1</v>
+      </c>
+      <c r="EP41">
+        <v>0</v>
+      </c>
+      <c r="EQ41">
+        <v>1</v>
+      </c>
+      <c r="ER41">
+        <v>0</v>
+      </c>
+      <c r="ES41">
+        <v>0</v>
+      </c>
+      <c r="ET41">
+        <v>0</v>
+      </c>
+      <c r="EU41">
+        <v>3</v>
+      </c>
+      <c r="EV41">
+        <v>0</v>
+      </c>
+      <c r="EW41">
+        <v>0</v>
+      </c>
+      <c r="EX41">
+        <v>0</v>
+      </c>
+      <c r="EY41">
+        <v>0</v>
+      </c>
+      <c r="EZ41">
+        <v>0</v>
+      </c>
+      <c r="FA41">
+        <v>0</v>
+      </c>
+      <c r="FB41">
+        <v>1</v>
+      </c>
+      <c r="FC41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:159" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -14223,6 +16759,84 @@
         <v>0</v>
       </c>
       <c r="EC42">
+        <v>0</v>
+      </c>
+      <c r="ED42">
+        <v>0</v>
+      </c>
+      <c r="EE42">
+        <v>0</v>
+      </c>
+      <c r="EF42">
+        <v>0</v>
+      </c>
+      <c r="EG42">
+        <v>0</v>
+      </c>
+      <c r="EH42">
+        <v>0</v>
+      </c>
+      <c r="EI42">
+        <v>0</v>
+      </c>
+      <c r="EJ42">
+        <v>0</v>
+      </c>
+      <c r="EK42">
+        <v>0</v>
+      </c>
+      <c r="EL42">
+        <v>0</v>
+      </c>
+      <c r="EM42">
+        <v>0</v>
+      </c>
+      <c r="EN42">
+        <v>0</v>
+      </c>
+      <c r="EO42">
+        <v>0</v>
+      </c>
+      <c r="EP42">
+        <v>0</v>
+      </c>
+      <c r="EQ42">
+        <v>0</v>
+      </c>
+      <c r="ER42">
+        <v>0</v>
+      </c>
+      <c r="ES42">
+        <v>0</v>
+      </c>
+      <c r="ET42">
+        <v>0</v>
+      </c>
+      <c r="EU42">
+        <v>0</v>
+      </c>
+      <c r="EV42">
+        <v>0</v>
+      </c>
+      <c r="EW42">
+        <v>0</v>
+      </c>
+      <c r="EX42">
+        <v>0</v>
+      </c>
+      <c r="EY42">
+        <v>0</v>
+      </c>
+      <c r="EZ42">
+        <v>0</v>
+      </c>
+      <c r="FA42">
+        <v>0</v>
+      </c>
+      <c r="FB42">
+        <v>0</v>
+      </c>
+      <c r="FC42">
         <v>0</v>
       </c>
     </row>
